--- a/Resultado/estado_gestion_paquete_1_Cucuta.xlsx
+++ b/Resultado/estado_gestion_paquete_1_Cucuta.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D454"/>
+  <dimension ref="A1:D450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>48381</v>
+        <v>48382</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -1977,12 +1977,12 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45895</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>48382</v>
+        <v>48384</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -1993,12 +1993,12 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45934</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>48384</v>
+        <v>48385</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>48385</v>
+        <v>48461</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
@@ -2025,12 +2025,12 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>48461</v>
+        <v>49790</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -2041,12 +2041,12 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>49790</v>
+        <v>50034</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
@@ -2057,12 +2057,12 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45895</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>50034</v>
+        <v>50858</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
@@ -2073,12 +2073,12 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45905</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>50858</v>
+        <v>51255</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
@@ -2089,12 +2089,12 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45917</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>51255</v>
+        <v>51434</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -2105,12 +2105,12 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45913</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>51434</v>
+        <v>51435</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
@@ -2121,12 +2121,12 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>51435</v>
+        <v>52015</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -2137,12 +2137,12 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45896</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>52015</v>
+        <v>52016</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -2153,12 +2153,12 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45910</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>52016</v>
+        <v>52313</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
@@ -2169,12 +2169,12 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>52313</v>
+        <v>52419</v>
       </c>
       <c r="B109" t="n">
         <v>1</v>
@@ -2185,12 +2185,12 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45904</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>52419</v>
+        <v>52577</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
@@ -2201,12 +2201,12 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45938</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>52577</v>
+        <v>52895</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
@@ -2217,12 +2217,12 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45911</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>52895</v>
+        <v>53030</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
@@ -2233,12 +2233,12 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>53030</v>
+        <v>53205</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
@@ -2249,12 +2249,12 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45908</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>53205</v>
+        <v>53206</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
@@ -2265,12 +2265,12 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45915</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>53206</v>
+        <v>53394</v>
       </c>
       <c r="B115" t="n">
         <v>1</v>
@@ -2281,12 +2281,12 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45913</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>53394</v>
+        <v>53511</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -2297,12 +2297,12 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45915</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>53511</v>
+        <v>53508</v>
       </c>
       <c r="B117" t="n">
         <v>1</v>
@@ -2313,12 +2313,12 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45925</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>53508</v>
+        <v>53840</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
@@ -2329,12 +2329,12 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45896</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>53840</v>
+        <v>53980</v>
       </c>
       <c r="B119" t="n">
         <v>1</v>
@@ -2345,12 +2345,12 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45938</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>53980</v>
+        <v>54267</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
@@ -2361,12 +2361,12 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45917</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>54267</v>
+        <v>54089</v>
       </c>
       <c r="B121" t="n">
         <v>1</v>
@@ -2377,12 +2377,12 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45933</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>54089</v>
+        <v>54571</v>
       </c>
       <c r="B122" t="n">
         <v>1</v>
@@ -2393,12 +2393,12 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45894</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>54571</v>
+        <v>54893</v>
       </c>
       <c r="B123" t="n">
         <v>1</v>
@@ -2409,12 +2409,12 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45904</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>54893</v>
+        <v>55338</v>
       </c>
       <c r="B124" t="n">
         <v>1</v>
@@ -2425,12 +2425,12 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45916</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>55338</v>
+        <v>55670</v>
       </c>
       <c r="B125" t="n">
         <v>1</v>
@@ -2441,12 +2441,12 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45910</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>55670</v>
+        <v>55671</v>
       </c>
       <c r="B126" t="n">
         <v>1</v>
@@ -2457,12 +2457,12 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45895</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>55671</v>
+        <v>55934</v>
       </c>
       <c r="B127" t="n">
         <v>1</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>55934</v>
+        <v>56122</v>
       </c>
       <c r="B128" t="n">
         <v>1</v>
@@ -2489,12 +2489,12 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45908</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>56122</v>
+        <v>56733</v>
       </c>
       <c r="B129" t="n">
         <v>1</v>
@@ -2505,12 +2505,12 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>56733</v>
+        <v>57130</v>
       </c>
       <c r="B130" t="n">
         <v>1</v>
@@ -2521,12 +2521,12 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45903</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>57130</v>
+        <v>57274</v>
       </c>
       <c r="B131" t="n">
         <v>1</v>
@@ -2537,12 +2537,12 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45901</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>57274</v>
+        <v>57275</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
@@ -2553,12 +2553,12 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45894</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>57275</v>
+        <v>57276</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
@@ -2569,12 +2569,12 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45904</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>57276</v>
+        <v>57385</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
@@ -2585,12 +2585,12 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45899</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>57385</v>
+        <v>57553</v>
       </c>
       <c r="B135" t="n">
         <v>1</v>
@@ -2601,12 +2601,12 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45926</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>57553</v>
+        <v>57798</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
@@ -2617,12 +2617,12 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>57798</v>
+        <v>57800</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
@@ -2633,12 +2633,12 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45915</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>57800</v>
+        <v>57801</v>
       </c>
       <c r="B138" t="n">
         <v>1</v>
@@ -2649,12 +2649,12 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45934</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>57801</v>
+        <v>58343</v>
       </c>
       <c r="B139" t="n">
         <v>1</v>
@@ -2665,12 +2665,12 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45908</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>58343</v>
+        <v>58546</v>
       </c>
       <c r="B140" t="n">
         <v>1</v>
@@ -2681,12 +2681,12 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45936</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>58546</v>
+        <v>58548</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>
@@ -2697,12 +2697,12 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45930</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>58548</v>
+        <v>58678</v>
       </c>
       <c r="B142" t="n">
         <v>1</v>
@@ -2713,12 +2713,12 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45905</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>58678</v>
+        <v>58924</v>
       </c>
       <c r="B143" t="n">
         <v>1</v>
@@ -2729,12 +2729,12 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45920</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>58924</v>
+        <v>58925</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
@@ -2745,12 +2745,12 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45930</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>58925</v>
+        <v>58926</v>
       </c>
       <c r="B145" t="n">
         <v>1</v>
@@ -2761,12 +2761,12 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45903</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>58926</v>
+        <v>58927</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
@@ -2777,12 +2777,12 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45934</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>58927</v>
+        <v>59161</v>
       </c>
       <c r="B147" t="n">
         <v>1</v>
@@ -2793,12 +2793,12 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45919</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>59161</v>
+        <v>59163</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>59163</v>
+        <v>59247</v>
       </c>
       <c r="B149" t="n">
         <v>1</v>
@@ -2825,12 +2825,12 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45897</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>59247</v>
+        <v>59643</v>
       </c>
       <c r="B150" t="n">
         <v>1</v>
@@ -2841,12 +2841,12 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45895</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>59643</v>
+        <v>60337</v>
       </c>
       <c r="B151" t="n">
         <v>1</v>
@@ -2857,12 +2857,12 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45920</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>60337</v>
+        <v>60338</v>
       </c>
       <c r="B152" t="n">
         <v>1</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>60338</v>
+        <v>60340</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
@@ -2889,12 +2889,12 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45922</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>60340</v>
+        <v>60379</v>
       </c>
       <c r="B154" t="n">
         <v>1</v>
@@ -2905,12 +2905,12 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45899</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>60379</v>
+        <v>60343</v>
       </c>
       <c r="B155" t="n">
         <v>1</v>
@@ -2921,12 +2921,12 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45929</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>60343</v>
+        <v>60344</v>
       </c>
       <c r="B156" t="n">
         <v>1</v>
@@ -2937,12 +2937,12 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45899</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>60344</v>
+        <v>60487</v>
       </c>
       <c r="B157" t="n">
         <v>1</v>
@@ -2953,12 +2953,12 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45908</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>60487</v>
+        <v>60488</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
@@ -2969,12 +2969,12 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45925</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>60488</v>
+        <v>60489</v>
       </c>
       <c r="B159" t="n">
         <v>1</v>
@@ -2985,12 +2985,12 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45917</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>60489</v>
+        <v>60490</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
@@ -3001,12 +3001,12 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45929</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>60490</v>
+        <v>60491</v>
       </c>
       <c r="B161" t="n">
         <v>1</v>
@@ -3017,12 +3017,12 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45918</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>60491</v>
+        <v>60492</v>
       </c>
       <c r="B162" t="n">
         <v>1</v>
@@ -3033,12 +3033,12 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45930</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>60492</v>
+        <v>60493</v>
       </c>
       <c r="B163" t="n">
         <v>1</v>
@@ -3049,12 +3049,12 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45937</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>60493</v>
+        <v>60494</v>
       </c>
       <c r="B164" t="n">
         <v>1</v>
@@ -3065,12 +3065,12 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45901</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>60494</v>
+        <v>60950</v>
       </c>
       <c r="B165" t="n">
         <v>1</v>
@@ -3081,12 +3081,12 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>45932</v>
+        <v>45927</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>60950</v>
+        <v>60852</v>
       </c>
       <c r="B166" t="n">
         <v>1</v>
@@ -3097,12 +3097,12 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>45927</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>60852</v>
+        <v>60853</v>
       </c>
       <c r="B167" t="n">
         <v>1</v>
@@ -3113,12 +3113,12 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>45913</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>60853</v>
+        <v>61224</v>
       </c>
       <c r="B168" t="n">
         <v>1</v>
@@ -3129,12 +3129,12 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>45911</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>61224</v>
+        <v>62337</v>
       </c>
       <c r="B169" t="n">
         <v>1</v>
@@ -3145,12 +3145,12 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>45896</v>
+        <v>45927</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>62337</v>
+        <v>62624</v>
       </c>
       <c r="B170" t="n">
         <v>1</v>
@@ -3161,12 +3161,12 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>45927</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>62624</v>
+        <v>62698</v>
       </c>
       <c r="B171" t="n">
         <v>1</v>
@@ -3177,12 +3177,12 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>45916</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>62698</v>
+        <v>62896</v>
       </c>
       <c r="B172" t="n">
         <v>1</v>
@@ -3193,12 +3193,12 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>45915</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>62896</v>
+        <v>62952</v>
       </c>
       <c r="B173" t="n">
         <v>1</v>
@@ -3209,12 +3209,12 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>45911</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>62952</v>
+        <v>63293</v>
       </c>
       <c r="B174" t="n">
         <v>1</v>
@@ -3225,12 +3225,12 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>45933</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>63293</v>
+        <v>63373</v>
       </c>
       <c r="B175" t="n">
         <v>1</v>
@@ -3241,12 +3241,12 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>45906</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>63373</v>
+        <v>63457</v>
       </c>
       <c r="B176" t="n">
         <v>1</v>
@@ -3257,12 +3257,12 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>45911</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>63457</v>
+        <v>63803</v>
       </c>
       <c r="B177" t="n">
         <v>1</v>
@@ -3273,12 +3273,12 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>45925</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>63803</v>
+        <v>63931</v>
       </c>
       <c r="B178" t="n">
         <v>1</v>
@@ -3289,12 +3289,12 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>45922</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>63931</v>
+        <v>63958</v>
       </c>
       <c r="B179" t="n">
         <v>1</v>
@@ -3305,12 +3305,12 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>45897</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>63958</v>
+        <v>64169</v>
       </c>
       <c r="B180" t="n">
         <v>1</v>
@@ -3321,12 +3321,12 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45910</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>64169</v>
+        <v>64170</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
@@ -3337,12 +3337,12 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45905</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>64170</v>
+        <v>64290</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -3353,12 +3353,12 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45901</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>64290</v>
+        <v>64787</v>
       </c>
       <c r="B183" t="n">
         <v>1</v>
@@ -3369,12 +3369,12 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45912</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>64787</v>
+        <v>64725</v>
       </c>
       <c r="B184" t="n">
         <v>1</v>
@@ -3385,12 +3385,12 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45898</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>64725</v>
+        <v>64791</v>
       </c>
       <c r="B185" t="n">
         <v>1</v>
@@ -3401,12 +3401,12 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45899</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>64791</v>
+        <v>64847</v>
       </c>
       <c r="B186" t="n">
         <v>1</v>
@@ -3417,12 +3417,12 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>45925</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>64847</v>
+        <v>64903</v>
       </c>
       <c r="B187" t="n">
         <v>1</v>
@@ -3433,12 +3433,12 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>45909</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>64903</v>
+        <v>65062</v>
       </c>
       <c r="B188" t="n">
         <v>1</v>
@@ -3449,12 +3449,12 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>45908</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>65062</v>
+        <v>65258</v>
       </c>
       <c r="B189" t="n">
         <v>1</v>
@@ -3465,12 +3465,12 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>65258</v>
+        <v>65259</v>
       </c>
       <c r="B190" t="n">
         <v>1</v>
@@ -3481,12 +3481,12 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>45915</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>65259</v>
+        <v>65382</v>
       </c>
       <c r="B191" t="n">
         <v>1</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>65382</v>
+        <v>65384</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
@@ -3513,12 +3513,12 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>45897</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>65384</v>
+        <v>65490</v>
       </c>
       <c r="B193" t="n">
         <v>1</v>
@@ -3529,12 +3529,12 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>45908</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>65490</v>
+        <v>65491</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
@@ -3545,12 +3545,12 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>45901</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>65491</v>
+        <v>65492</v>
       </c>
       <c r="B195" t="n">
         <v>1</v>
@@ -3561,12 +3561,12 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>45931</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>65492</v>
+        <v>65493</v>
       </c>
       <c r="B196" t="n">
         <v>1</v>
@@ -3577,12 +3577,12 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>65493</v>
+        <v>65494</v>
       </c>
       <c r="B197" t="n">
         <v>1</v>
@@ -3593,12 +3593,12 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>45909</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>65494</v>
+        <v>65616</v>
       </c>
       <c r="B198" t="n">
         <v>1</v>
@@ -3609,12 +3609,12 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>45894</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>65616</v>
+        <v>65617</v>
       </c>
       <c r="B199" t="n">
         <v>1</v>
@@ -3625,12 +3625,12 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>65617</v>
+        <v>65618</v>
       </c>
       <c r="B200" t="n">
         <v>1</v>
@@ -3641,12 +3641,12 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>45901</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>65618</v>
+        <v>65688</v>
       </c>
       <c r="B201" t="n">
         <v>1</v>
@@ -3657,12 +3657,12 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45917</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>65688</v>
+        <v>65896</v>
       </c>
       <c r="B202" t="n">
         <v>1</v>
@@ -3673,12 +3673,12 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45930</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>65896</v>
+        <v>65897</v>
       </c>
       <c r="B203" t="n">
         <v>1</v>
@@ -3689,12 +3689,12 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45920</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>65897</v>
+        <v>66092</v>
       </c>
       <c r="B204" t="n">
         <v>1</v>
@@ -3705,12 +3705,12 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45916</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>66092</v>
+        <v>66488</v>
       </c>
       <c r="B205" t="n">
         <v>1</v>
@@ -3721,12 +3721,12 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45895</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>66488</v>
+        <v>66489</v>
       </c>
       <c r="B206" t="n">
         <v>1</v>
@@ -3737,12 +3737,12 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>45932</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>66489</v>
+        <v>66576</v>
       </c>
       <c r="B207" t="n">
         <v>1</v>
@@ -3753,12 +3753,12 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45936</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>66576</v>
+        <v>66925</v>
       </c>
       <c r="B208" t="n">
         <v>1</v>
@@ -3769,12 +3769,12 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>45917</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>66925</v>
+        <v>66926</v>
       </c>
       <c r="B209" t="n">
         <v>1</v>
@@ -3785,12 +3785,12 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45909</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>66926</v>
+        <v>67132</v>
       </c>
       <c r="B210" t="n">
         <v>1</v>
@@ -3801,12 +3801,12 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45906</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>67132</v>
+        <v>67484</v>
       </c>
       <c r="B211" t="n">
         <v>1</v>
@@ -3817,12 +3817,12 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45922</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>67484</v>
+        <v>67768</v>
       </c>
       <c r="B212" t="n">
         <v>1</v>
@@ -3833,12 +3833,12 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>45903</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>67768</v>
+        <v>67821</v>
       </c>
       <c r="B213" t="n">
         <v>1</v>
@@ -3849,12 +3849,12 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>45894</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>67821</v>
+        <v>67822</v>
       </c>
       <c r="B214" t="n">
         <v>1</v>
@@ -3865,12 +3865,12 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>45901</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>67822</v>
+        <v>67823</v>
       </c>
       <c r="B215" t="n">
         <v>1</v>
@@ -3881,12 +3881,12 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>45897</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>67823</v>
+        <v>67824</v>
       </c>
       <c r="B216" t="n">
         <v>1</v>
@@ -3897,12 +3897,12 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>45913</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>67824</v>
+        <v>68001</v>
       </c>
       <c r="B217" t="n">
         <v>1</v>
@@ -3913,12 +3913,12 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>45912</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>68001</v>
+        <v>68066</v>
       </c>
       <c r="B218" t="n">
         <v>1</v>
@@ -3929,12 +3929,12 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>45919</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>68066</v>
+        <v>68382</v>
       </c>
       <c r="B219" t="n">
         <v>1</v>
@@ -3945,12 +3945,12 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>45894</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>68382</v>
+        <v>68383</v>
       </c>
       <c r="B220" t="n">
         <v>1</v>
@@ -3961,12 +3961,12 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>45922</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>68383</v>
+        <v>68384</v>
       </c>
       <c r="B221" t="n">
         <v>1</v>
@@ -3977,12 +3977,12 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>45926</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>68384</v>
+        <v>68531</v>
       </c>
       <c r="B222" t="n">
         <v>1</v>
@@ -3993,12 +3993,12 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>45924</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>68531</v>
+        <v>69335</v>
       </c>
       <c r="B223" t="n">
         <v>1</v>
@@ -4009,12 +4009,12 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>45898</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>69335</v>
+        <v>69176</v>
       </c>
       <c r="B224" t="n">
         <v>1</v>
@@ -4025,12 +4025,12 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>45906</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>69176</v>
+        <v>69231</v>
       </c>
       <c r="B225" t="n">
         <v>1</v>
@@ -4041,12 +4041,12 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>45916</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>69231</v>
+        <v>69177</v>
       </c>
       <c r="B226" t="n">
         <v>1</v>
@@ -4057,12 +4057,12 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>45920</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>69177</v>
+        <v>69433</v>
       </c>
       <c r="B227" t="n">
         <v>1</v>
@@ -4073,12 +4073,12 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>45912</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>69433</v>
+        <v>69908</v>
       </c>
       <c r="B228" t="n">
         <v>1</v>
@@ -4089,12 +4089,12 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>45906</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>69908</v>
+        <v>69909</v>
       </c>
       <c r="B229" t="n">
         <v>1</v>
@@ -4105,12 +4105,12 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>45922</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>69909</v>
+        <v>70228</v>
       </c>
       <c r="B230" t="n">
         <v>1</v>
@@ -4121,12 +4121,12 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>45909</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>70228</v>
+        <v>70183</v>
       </c>
       <c r="B231" t="n">
         <v>1</v>
@@ -4137,12 +4137,12 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>45896</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>70183</v>
+        <v>70229</v>
       </c>
       <c r="B232" t="n">
         <v>1</v>
@@ -4153,12 +4153,12 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>45937</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>70229</v>
+        <v>70284</v>
       </c>
       <c r="B233" t="n">
         <v>1</v>
@@ -4169,12 +4169,12 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>45919</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>70284</v>
+        <v>70230</v>
       </c>
       <c r="B234" t="n">
         <v>1</v>
@@ -4185,12 +4185,12 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>45917</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>70230</v>
+        <v>70520</v>
       </c>
       <c r="B235" t="n">
         <v>1</v>
@@ -4201,12 +4201,12 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>45897</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>70520</v>
+        <v>70652</v>
       </c>
       <c r="B236" t="n">
         <v>1</v>
@@ -4217,12 +4217,12 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>45939</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>70652</v>
+        <v>70654</v>
       </c>
       <c r="B237" t="n">
         <v>1</v>
@@ -4233,12 +4233,12 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>45895</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>70654</v>
+        <v>70655</v>
       </c>
       <c r="B238" t="n">
         <v>1</v>
@@ -4249,12 +4249,12 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>45899</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>70655</v>
+        <v>71129</v>
       </c>
       <c r="B239" t="n">
         <v>1</v>
@@ -4265,12 +4265,12 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>45895</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>71129</v>
+        <v>71221</v>
       </c>
       <c r="B240" t="n">
         <v>1</v>
@@ -4281,12 +4281,12 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>45917</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>71221</v>
+        <v>71222</v>
       </c>
       <c r="B241" t="n">
         <v>1</v>
@@ -4297,12 +4297,12 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>45903</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>71222</v>
+        <v>71335</v>
       </c>
       <c r="B242" t="n">
         <v>1</v>
@@ -4313,12 +4313,12 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>45901</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>71335</v>
+        <v>71610</v>
       </c>
       <c r="B243" t="n">
         <v>1</v>
@@ -4329,12 +4329,12 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>45917</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>71610</v>
+        <v>71611</v>
       </c>
       <c r="B244" t="n">
         <v>1</v>
@@ -4345,12 +4345,12 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>45903</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>71611</v>
+        <v>71540</v>
       </c>
       <c r="B245" t="n">
         <v>1</v>
@@ -4361,12 +4361,12 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>45899</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>71540</v>
+        <v>71612</v>
       </c>
       <c r="B246" t="n">
         <v>1</v>
@@ -4377,12 +4377,12 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>45895</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>71612</v>
+        <v>71616</v>
       </c>
       <c r="B247" t="n">
         <v>1</v>
@@ -4393,12 +4393,12 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>71616</v>
+        <v>71618</v>
       </c>
       <c r="B248" t="n">
         <v>1</v>
@@ -4409,12 +4409,12 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>45939</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>71618</v>
+        <v>71678</v>
       </c>
       <c r="B249" t="n">
         <v>1</v>
@@ -4425,12 +4425,12 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>45924</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>71678</v>
+        <v>71832</v>
       </c>
       <c r="B250" t="n">
         <v>1</v>
@@ -4441,12 +4441,12 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>45916</v>
+        <v>45927</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>71832</v>
+        <v>71833</v>
       </c>
       <c r="B251" t="n">
         <v>1</v>
@@ -4457,12 +4457,12 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>45927</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>71833</v>
+        <v>71924</v>
       </c>
       <c r="B252" t="n">
         <v>1</v>
@@ -4473,12 +4473,12 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>45898</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>71924</v>
+        <v>72059</v>
       </c>
       <c r="B253" t="n">
         <v>1</v>
@@ -4489,12 +4489,12 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>45936</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>72059</v>
+        <v>72060</v>
       </c>
       <c r="B254" t="n">
         <v>1</v>
@@ -4505,12 +4505,12 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>45911</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>72060</v>
+        <v>72611</v>
       </c>
       <c r="B255" t="n">
         <v>1</v>
@@ -4521,12 +4521,12 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>45926</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>72611</v>
+        <v>72613</v>
       </c>
       <c r="B256" t="n">
         <v>1</v>
@@ -4537,12 +4537,12 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>72613</v>
+        <v>72614</v>
       </c>
       <c r="B257" t="n">
         <v>1</v>
@@ -4553,12 +4553,12 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>45903</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>72614</v>
+        <v>72615</v>
       </c>
       <c r="B258" t="n">
         <v>1</v>
@@ -4569,12 +4569,12 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>45898</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>72615</v>
+        <v>72720</v>
       </c>
       <c r="B259" t="n">
         <v>1</v>
@@ -4585,12 +4585,12 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>45905</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>72720</v>
+        <v>72721</v>
       </c>
       <c r="B260" t="n">
         <v>1</v>
@@ -4601,12 +4601,12 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>45897</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>72721</v>
+        <v>72722</v>
       </c>
       <c r="B261" t="n">
         <v>1</v>
@@ -4617,12 +4617,12 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>45934</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>72722</v>
+        <v>72904</v>
       </c>
       <c r="B262" t="n">
         <v>1</v>
@@ -4633,12 +4633,12 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>45931</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>72904</v>
+        <v>72905</v>
       </c>
       <c r="B263" t="n">
         <v>1</v>
@@ -4649,12 +4649,12 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>45904</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>72905</v>
+        <v>73175</v>
       </c>
       <c r="B264" t="n">
         <v>1</v>
@@ -4665,12 +4665,12 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>45896</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>73175</v>
+        <v>73215</v>
       </c>
       <c r="B265" t="n">
         <v>1</v>
@@ -4681,12 +4681,12 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>45936</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>73215</v>
+        <v>73339</v>
       </c>
       <c r="B266" t="n">
         <v>1</v>
@@ -4697,12 +4697,12 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>45897</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>73339</v>
+        <v>73340</v>
       </c>
       <c r="B267" t="n">
         <v>1</v>
@@ -4713,12 +4713,12 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>45926</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>73340</v>
+        <v>74273</v>
       </c>
       <c r="B268" t="n">
         <v>1</v>
@@ -4729,12 +4729,12 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>45902</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>74273</v>
+        <v>74274</v>
       </c>
       <c r="B269" t="n">
         <v>1</v>
@@ -4745,12 +4745,12 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>45913</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>74274</v>
+        <v>74275</v>
       </c>
       <c r="B270" t="n">
         <v>1</v>
@@ -4761,12 +4761,12 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>45902</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>74275</v>
+        <v>74276</v>
       </c>
       <c r="B271" t="n">
         <v>1</v>
@@ -4777,12 +4777,12 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>45915</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>74276</v>
+        <v>74277</v>
       </c>
       <c r="B272" t="n">
         <v>1</v>
@@ -4793,12 +4793,12 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>45910</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>74277</v>
+        <v>74278</v>
       </c>
       <c r="B273" t="n">
         <v>1</v>
@@ -4809,12 +4809,12 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>45898</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>74278</v>
+        <v>74279</v>
       </c>
       <c r="B274" t="n">
         <v>1</v>
@@ -4825,12 +4825,12 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>45906</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>74279</v>
+        <v>74280</v>
       </c>
       <c r="B275" t="n">
         <v>1</v>
@@ -4841,12 +4841,12 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>45910</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>74280</v>
+        <v>74282</v>
       </c>
       <c r="B276" t="n">
         <v>1</v>
@@ -4857,12 +4857,12 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>45924</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>74282</v>
+        <v>74283</v>
       </c>
       <c r="B277" t="n">
         <v>1</v>
@@ -4873,12 +4873,12 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>45933</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>74283</v>
+        <v>74335</v>
       </c>
       <c r="B278" t="n">
         <v>1</v>
@@ -4889,12 +4889,12 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>45905</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>74335</v>
+        <v>74336</v>
       </c>
       <c r="B279" t="n">
         <v>1</v>
@@ -4905,12 +4905,12 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>45918</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>74336</v>
+        <v>74337</v>
       </c>
       <c r="B280" t="n">
         <v>1</v>
@@ -4921,12 +4921,12 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>45894</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>74337</v>
+        <v>74376</v>
       </c>
       <c r="B281" t="n">
         <v>1</v>
@@ -4937,12 +4937,12 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>45904</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>74376</v>
+        <v>74421</v>
       </c>
       <c r="B282" t="n">
         <v>1</v>
@@ -4953,12 +4953,12 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>45917</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>74421</v>
+        <v>74422</v>
       </c>
       <c r="B283" t="n">
         <v>1</v>
@@ -4969,12 +4969,12 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>45912</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>74422</v>
+        <v>74476</v>
       </c>
       <c r="B284" t="n">
         <v>1</v>
@@ -4985,12 +4985,12 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>45903</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>74476</v>
+        <v>74493</v>
       </c>
       <c r="B285" t="n">
         <v>1</v>
@@ -5001,12 +5001,12 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>45895</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>74493</v>
+        <v>74539</v>
       </c>
       <c r="B286" t="n">
         <v>1</v>
@@ -5017,12 +5017,12 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>45911</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>74539</v>
+        <v>74540</v>
       </c>
       <c r="B287" t="n">
         <v>1</v>
@@ -5033,12 +5033,12 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>45906</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>74540</v>
+        <v>74541</v>
       </c>
       <c r="B288" t="n">
         <v>1</v>
@@ -5049,12 +5049,12 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>45899</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>74541</v>
+        <v>74542</v>
       </c>
       <c r="B289" t="n">
         <v>1</v>
@@ -5065,12 +5065,12 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>45912</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>74542</v>
+        <v>74779</v>
       </c>
       <c r="B290" t="n">
         <v>1</v>
@@ -5081,12 +5081,12 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>45926</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>74779</v>
+        <v>74780</v>
       </c>
       <c r="B291" t="n">
         <v>1</v>
@@ -5097,12 +5097,12 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>45905</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>74780</v>
+        <v>74869</v>
       </c>
       <c r="B292" t="n">
         <v>1</v>
@@ -5113,12 +5113,12 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>45920</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>74869</v>
+        <v>75134</v>
       </c>
       <c r="B293" t="n">
         <v>1</v>
@@ -5129,12 +5129,12 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>45904</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>75134</v>
+        <v>75135</v>
       </c>
       <c r="B294" t="n">
         <v>1</v>
@@ -5145,12 +5145,12 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>45913</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>75135</v>
+        <v>75192</v>
       </c>
       <c r="B295" t="n">
         <v>1</v>
@@ -5161,12 +5161,12 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>45910</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>75192</v>
+        <v>75193</v>
       </c>
       <c r="B296" t="n">
         <v>1</v>
@@ -5177,12 +5177,12 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>45923</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>75193</v>
+        <v>75194</v>
       </c>
       <c r="B297" t="n">
         <v>1</v>
@@ -5193,12 +5193,12 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>45901</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>75194</v>
+        <v>75195</v>
       </c>
       <c r="B298" t="n">
         <v>1</v>
@@ -5209,12 +5209,12 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>45937</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>75195</v>
+        <v>75196</v>
       </c>
       <c r="B299" t="n">
         <v>1</v>
@@ -5225,12 +5225,12 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>45899</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>75196</v>
+        <v>75197</v>
       </c>
       <c r="B300" t="n">
         <v>1</v>
@@ -5241,12 +5241,12 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>45901</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>75197</v>
+        <v>75208</v>
       </c>
       <c r="B301" t="n">
         <v>1</v>
@@ -5257,12 +5257,12 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>45908</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>75208</v>
+        <v>75391</v>
       </c>
       <c r="B302" t="n">
         <v>1</v>
@@ -5273,12 +5273,12 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>75391</v>
+        <v>75328</v>
       </c>
       <c r="B303" t="n">
         <v>1</v>
@@ -5289,12 +5289,12 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>45916</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>75328</v>
+        <v>75343</v>
       </c>
       <c r="B304" t="n">
         <v>1</v>
@@ -5305,12 +5305,12 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>75343</v>
+        <v>75329</v>
       </c>
       <c r="B305" t="n">
         <v>1</v>
@@ -5321,12 +5321,12 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>45904</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>75329</v>
+        <v>75349</v>
       </c>
       <c r="B306" t="n">
         <v>1</v>
@@ -5337,12 +5337,12 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>45903</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>75349</v>
+        <v>75350</v>
       </c>
       <c r="B307" t="n">
         <v>1</v>
@@ -5353,12 +5353,12 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>45897</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>75350</v>
+        <v>75351</v>
       </c>
       <c r="B308" t="n">
         <v>1</v>
@@ -5369,12 +5369,12 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>45902</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>75351</v>
+        <v>75396</v>
       </c>
       <c r="B309" t="n">
         <v>1</v>
@@ -5385,12 +5385,12 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>45909</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>75396</v>
+        <v>75403</v>
       </c>
       <c r="B310" t="n">
         <v>1</v>
@@ -5401,12 +5401,12 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>75403</v>
+        <v>75405</v>
       </c>
       <c r="B311" t="n">
         <v>1</v>
@@ -5417,12 +5417,12 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>45896</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>75405</v>
+        <v>75407</v>
       </c>
       <c r="B312" t="n">
         <v>1</v>
@@ -5433,12 +5433,12 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>45905</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>75407</v>
+        <v>75443</v>
       </c>
       <c r="B313" t="n">
         <v>1</v>
@@ -5449,12 +5449,12 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>45918</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>75443</v>
+        <v>75445</v>
       </c>
       <c r="B314" t="n">
         <v>1</v>
@@ -5465,12 +5465,12 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>45904</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>75445</v>
+        <v>75467</v>
       </c>
       <c r="B315" t="n">
         <v>1</v>
@@ -5481,12 +5481,12 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>45898</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>75467</v>
+        <v>75446</v>
       </c>
       <c r="B316" t="n">
         <v>1</v>
@@ -5497,12 +5497,12 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>45924</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>75446</v>
+        <v>75609</v>
       </c>
       <c r="B317" t="n">
         <v>1</v>
@@ -5513,12 +5513,12 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>45932</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>75609</v>
+        <v>75615</v>
       </c>
       <c r="B318" t="n">
         <v>1</v>
@@ -5529,12 +5529,12 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>75615</v>
+        <v>75616</v>
       </c>
       <c r="B319" t="n">
         <v>1</v>
@@ -5545,12 +5545,12 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>45903</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>75616</v>
+        <v>75734</v>
       </c>
       <c r="B320" t="n">
         <v>1</v>
@@ -5561,12 +5561,12 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>45924</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>75734</v>
+        <v>75833</v>
       </c>
       <c r="B321" t="n">
         <v>1</v>
@@ -5577,12 +5577,12 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>45910</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>75833</v>
+        <v>75837</v>
       </c>
       <c r="B322" t="n">
         <v>1</v>
@@ -5593,12 +5593,12 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>45913</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>75837</v>
+        <v>75840</v>
       </c>
       <c r="B323" t="n">
         <v>1</v>
@@ -5609,12 +5609,12 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>45919</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>75840</v>
+        <v>75848</v>
       </c>
       <c r="B324" t="n">
         <v>1</v>
@@ -5625,12 +5625,12 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>45918</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>75848</v>
+        <v>76000</v>
       </c>
       <c r="B325" t="n">
         <v>1</v>
@@ -5641,12 +5641,12 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>45894</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>76000</v>
+        <v>76002</v>
       </c>
       <c r="B326" t="n">
         <v>1</v>
@@ -5657,12 +5657,12 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>45911</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>76002</v>
+        <v>76003</v>
       </c>
       <c r="B327" t="n">
         <v>1</v>
@@ -5673,12 +5673,12 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>45895</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>76003</v>
+        <v>76127</v>
       </c>
       <c r="B328" t="n">
         <v>1</v>
@@ -5689,12 +5689,12 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>45929</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>76127</v>
+        <v>76191</v>
       </c>
       <c r="B329" t="n">
         <v>1</v>
@@ -5705,12 +5705,12 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>45899</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>76191</v>
+        <v>76234</v>
       </c>
       <c r="B330" t="n">
         <v>1</v>
@@ -5721,12 +5721,12 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>45902</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>76234</v>
+        <v>76265</v>
       </c>
       <c r="B331" t="n">
         <v>1</v>
@@ -5737,12 +5737,12 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>45899</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>76265</v>
+        <v>76263</v>
       </c>
       <c r="B332" t="n">
         <v>1</v>
@@ -5753,12 +5753,12 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>45911</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>76263</v>
+        <v>76266</v>
       </c>
       <c r="B333" t="n">
         <v>1</v>
@@ -5769,12 +5769,12 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>45899</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>76266</v>
+        <v>76264</v>
       </c>
       <c r="B334" t="n">
         <v>1</v>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>76264</v>
+        <v>76267</v>
       </c>
       <c r="B335" t="n">
         <v>1</v>
@@ -5801,12 +5801,12 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>45920</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>76267</v>
+        <v>76306</v>
       </c>
       <c r="B336" t="n">
         <v>1</v>
@@ -5817,12 +5817,12 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>45895</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>76306</v>
+        <v>76416</v>
       </c>
       <c r="B337" t="n">
         <v>1</v>
@@ -5833,12 +5833,12 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>45902</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>76416</v>
+        <v>76415</v>
       </c>
       <c r="B338" t="n">
         <v>1</v>
@@ -5849,12 +5849,12 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>45898</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>76415</v>
+        <v>76418</v>
       </c>
       <c r="B339" t="n">
         <v>1</v>
@@ -5865,12 +5865,12 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>45904</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>76418</v>
+        <v>76673</v>
       </c>
       <c r="B340" t="n">
         <v>1</v>
@@ -5881,12 +5881,12 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>45910</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>76673</v>
+        <v>76725</v>
       </c>
       <c r="B341" t="n">
         <v>1</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>76725</v>
+        <v>76727</v>
       </c>
       <c r="B342" t="n">
         <v>1</v>
@@ -5913,12 +5913,12 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>45925</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>76727</v>
+        <v>76722</v>
       </c>
       <c r="B343" t="n">
         <v>1</v>
@@ -5929,12 +5929,12 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>45896</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>76722</v>
+        <v>76726</v>
       </c>
       <c r="B344" t="n">
         <v>1</v>
@@ -5945,12 +5945,12 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>45911</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>76726</v>
+        <v>76724</v>
       </c>
       <c r="B345" t="n">
         <v>1</v>
@@ -5961,12 +5961,12 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>45904</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>76724</v>
+        <v>76767</v>
       </c>
       <c r="B346" t="n">
         <v>1</v>
@@ -5977,12 +5977,12 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>45898</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>76767</v>
+        <v>76766</v>
       </c>
       <c r="B347" t="n">
         <v>1</v>
@@ -5993,12 +5993,12 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>45910</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>76766</v>
+        <v>76797</v>
       </c>
       <c r="B348" t="n">
         <v>1</v>
@@ -6009,12 +6009,12 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>45898</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>76797</v>
+        <v>76796</v>
       </c>
       <c r="B349" t="n">
         <v>1</v>
@@ -6025,12 +6025,12 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>45906</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>76796</v>
+        <v>76889</v>
       </c>
       <c r="B350" t="n">
         <v>1</v>
@@ -6041,12 +6041,12 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>45905</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>76889</v>
+        <v>76888</v>
       </c>
       <c r="B351" t="n">
         <v>1</v>
@@ -6057,12 +6057,12 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>45902</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>76888</v>
+        <v>77073</v>
       </c>
       <c r="B352" t="n">
         <v>1</v>
@@ -6073,12 +6073,12 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>45909</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>77073</v>
+        <v>77167</v>
       </c>
       <c r="B353" t="n">
         <v>1</v>
@@ -6089,12 +6089,12 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>45917</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>77167</v>
+        <v>77229</v>
       </c>
       <c r="B354" t="n">
         <v>1</v>
@@ -6105,12 +6105,12 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>45894</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>77229</v>
+        <v>77304</v>
       </c>
       <c r="B355" t="n">
         <v>1</v>
@@ -6126,7 +6126,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>77304</v>
+        <v>77230</v>
       </c>
       <c r="B356" t="n">
         <v>1</v>
@@ -6137,12 +6137,12 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>45940</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>77230</v>
+        <v>77305</v>
       </c>
       <c r="B357" t="n">
         <v>1</v>
@@ -6153,12 +6153,12 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>45908</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>77305</v>
+        <v>77307</v>
       </c>
       <c r="B358" t="n">
         <v>1</v>
@@ -6169,12 +6169,12 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>45896</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>77307</v>
+        <v>77308</v>
       </c>
       <c r="B359" t="n">
         <v>1</v>
@@ -6185,12 +6185,12 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>45922</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>77308</v>
+        <v>77275</v>
       </c>
       <c r="B360" t="n">
         <v>1</v>
@@ -6201,12 +6201,12 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>77275</v>
+        <v>77342</v>
       </c>
       <c r="B361" t="n">
         <v>1</v>
@@ -6217,12 +6217,12 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>45895</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>77342</v>
+        <v>77345</v>
       </c>
       <c r="B362" t="n">
         <v>1</v>
@@ -6233,12 +6233,12 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>45923</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>77345</v>
+        <v>77346</v>
       </c>
       <c r="B363" t="n">
         <v>1</v>
@@ -6249,12 +6249,12 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>45933</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>77346</v>
+        <v>77401</v>
       </c>
       <c r="B364" t="n">
         <v>1</v>
@@ -6265,12 +6265,12 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>45915</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>77401</v>
+        <v>77449</v>
       </c>
       <c r="B365" t="n">
         <v>1</v>
@@ -6281,12 +6281,12 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>45939</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>77449</v>
+        <v>77450</v>
       </c>
       <c r="B366" t="n">
         <v>1</v>
@@ -6297,12 +6297,12 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>45896</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>77450</v>
+        <v>77537</v>
       </c>
       <c r="B367" t="n">
         <v>1</v>
@@ -6313,12 +6313,12 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>77537</v>
+        <v>77538</v>
       </c>
       <c r="B368" t="n">
         <v>1</v>
@@ -6329,12 +6329,12 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>45922</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>77538</v>
+        <v>77657</v>
       </c>
       <c r="B369" t="n">
         <v>1</v>
@@ -6345,12 +6345,12 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>45918</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>77657</v>
+        <v>77608</v>
       </c>
       <c r="B370" t="n">
         <v>1</v>
@@ -6361,12 +6361,12 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>45923</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>77608</v>
+        <v>77658</v>
       </c>
       <c r="B371" t="n">
         <v>1</v>
@@ -6377,12 +6377,12 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>45894</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>77658</v>
+        <v>77660</v>
       </c>
       <c r="B372" t="n">
         <v>1</v>
@@ -6393,12 +6393,12 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>45912</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>77660</v>
+        <v>77661</v>
       </c>
       <c r="B373" t="n">
         <v>1</v>
@@ -6409,12 +6409,12 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>45937</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>77661</v>
+        <v>77662</v>
       </c>
       <c r="B374" t="n">
         <v>1</v>
@@ -6425,12 +6425,12 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>45932</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>77662</v>
+        <v>77663</v>
       </c>
       <c r="B375" t="n">
         <v>1</v>
@@ -6441,12 +6441,12 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>45899</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>77663</v>
+        <v>77664</v>
       </c>
       <c r="B376" t="n">
         <v>1</v>
@@ -6457,12 +6457,12 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>77664</v>
+        <v>77732</v>
       </c>
       <c r="B377" t="n">
         <v>1</v>
@@ -6473,12 +6473,12 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>45902</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>77732</v>
+        <v>77894</v>
       </c>
       <c r="B378" t="n">
         <v>1</v>
@@ -6489,12 +6489,12 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>45925</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>77894</v>
+        <v>77958</v>
       </c>
       <c r="B379" t="n">
         <v>1</v>
@@ -6505,12 +6505,12 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>77958</v>
+        <v>78002</v>
       </c>
       <c r="B380" t="n">
         <v>1</v>
@@ -6521,12 +6521,12 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>45908</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>78002</v>
+        <v>78003</v>
       </c>
       <c r="B381" t="n">
         <v>1</v>
@@ -6537,12 +6537,12 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>45896</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>78003</v>
+        <v>78004</v>
       </c>
       <c r="B382" t="n">
         <v>1</v>
@@ -6553,12 +6553,12 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>45902</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>78004</v>
+        <v>78077</v>
       </c>
       <c r="B383" t="n">
         <v>1</v>
@@ -6569,12 +6569,12 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>78077</v>
+        <v>78184</v>
       </c>
       <c r="B384" t="n">
         <v>1</v>
@@ -6585,12 +6585,12 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>45916</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>78184</v>
+        <v>78185</v>
       </c>
       <c r="B385" t="n">
         <v>1</v>
@@ -6601,12 +6601,12 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>45894</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>78185</v>
+        <v>78246</v>
       </c>
       <c r="B386" t="n">
         <v>1</v>
@@ -6617,12 +6617,12 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>45919</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>78246</v>
+        <v>78345</v>
       </c>
       <c r="B387" t="n">
         <v>1</v>
@@ -6633,12 +6633,12 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>45918</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>78345</v>
+        <v>78346</v>
       </c>
       <c r="B388" t="n">
         <v>1</v>
@@ -6649,12 +6649,12 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>45912</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>78346</v>
+        <v>78347</v>
       </c>
       <c r="B389" t="n">
         <v>1</v>
@@ -6665,12 +6665,12 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>45911</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>78347</v>
+        <v>78378</v>
       </c>
       <c r="B390" t="n">
         <v>1</v>
@@ -6681,12 +6681,12 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>45898</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>78378</v>
+        <v>78377</v>
       </c>
       <c r="B391" t="n">
         <v>1</v>
@@ -6697,12 +6697,12 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>45904</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>78377</v>
+        <v>78423</v>
       </c>
       <c r="B392" t="n">
         <v>1</v>
@@ -6713,12 +6713,12 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>45916</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>78423</v>
+        <v>78517</v>
       </c>
       <c r="B393" t="n">
         <v>1</v>
@@ -6729,12 +6729,12 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>78517</v>
+        <v>78518</v>
       </c>
       <c r="B394" t="n">
         <v>1</v>
@@ -6745,12 +6745,12 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>45926</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>78518</v>
+        <v>78516</v>
       </c>
       <c r="B395" t="n">
         <v>1</v>
@@ -6761,12 +6761,12 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>45905</v>
+        <v>45927</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>78516</v>
+        <v>78520</v>
       </c>
       <c r="B396" t="n">
         <v>1</v>
@@ -6777,12 +6777,12 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>45927</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>78520</v>
+        <v>78607</v>
       </c>
       <c r="B397" t="n">
         <v>1</v>
@@ -6798,7 +6798,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>78607</v>
+        <v>78625</v>
       </c>
       <c r="B398" t="n">
         <v>1</v>
@@ -6809,12 +6809,12 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>45919</v>
+        <v>45927</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>78625</v>
+        <v>78798</v>
       </c>
       <c r="B399" t="n">
         <v>1</v>
@@ -6825,12 +6825,12 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>45927</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>78798</v>
+        <v>78799</v>
       </c>
       <c r="B400" t="n">
         <v>1</v>
@@ -6841,12 +6841,12 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>45901</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>78799</v>
+        <v>78869</v>
       </c>
       <c r="B401" t="n">
         <v>1</v>
@@ -6857,12 +6857,12 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>45894</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>78869</v>
+        <v>78902</v>
       </c>
       <c r="B402" t="n">
         <v>1</v>
@@ -6873,12 +6873,12 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>45902</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>78902</v>
+        <v>78901</v>
       </c>
       <c r="B403" t="n">
         <v>1</v>
@@ -6889,12 +6889,12 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>45898</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>78901</v>
+        <v>78871</v>
       </c>
       <c r="B404" t="n">
         <v>1</v>
@@ -6905,12 +6905,12 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>45920</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>78871</v>
+        <v>78949</v>
       </c>
       <c r="B405" t="n">
         <v>1</v>
@@ -6921,12 +6921,12 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>45897</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>78949</v>
+        <v>78947</v>
       </c>
       <c r="B406" t="n">
         <v>1</v>
@@ -6937,12 +6937,12 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>45919</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>78947</v>
+        <v>78951</v>
       </c>
       <c r="B407" t="n">
         <v>1</v>
@@ -6953,12 +6953,12 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>45899</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>78951</v>
+        <v>78948</v>
       </c>
       <c r="B408" t="n">
         <v>1</v>
@@ -6969,12 +6969,12 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>45912</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>78948</v>
+        <v>78950</v>
       </c>
       <c r="B409" t="n">
         <v>1</v>
@@ -6985,12 +6985,12 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>45906</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>78950</v>
+        <v>79062</v>
       </c>
       <c r="B410" t="n">
         <v>1</v>
@@ -7001,12 +7001,12 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>45910</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>79062</v>
+        <v>79063</v>
       </c>
       <c r="B411" t="n">
         <v>1</v>
@@ -7017,12 +7017,12 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>45913</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>79065</v>
+        <v>79067</v>
       </c>
       <c r="B412" t="n">
         <v>1</v>
@@ -7033,12 +7033,12 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>45897</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>79063</v>
+        <v>79066</v>
       </c>
       <c r="B413" t="n">
         <v>1</v>
@@ -7049,12 +7049,12 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>45904</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>79067</v>
+        <v>79070</v>
       </c>
       <c r="B414" t="n">
         <v>1</v>
@@ -7065,12 +7065,12 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>45924</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>79066</v>
+        <v>79068</v>
       </c>
       <c r="B415" t="n">
         <v>1</v>
@@ -7081,12 +7081,12 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>45931</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>79070</v>
+        <v>79071</v>
       </c>
       <c r="B416" t="n">
         <v>1</v>
@@ -7097,12 +7097,12 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>45915</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>79068</v>
+        <v>79211</v>
       </c>
       <c r="B417" t="n">
         <v>1</v>
@@ -7113,12 +7113,12 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>45904</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>79071</v>
+        <v>79508</v>
       </c>
       <c r="B418" t="n">
         <v>1</v>
@@ -7129,12 +7129,12 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>45924</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>79211</v>
+        <v>79378</v>
       </c>
       <c r="B419" t="n">
         <v>1</v>
@@ -7145,12 +7145,12 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>45922</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>79508</v>
+        <v>79510</v>
       </c>
       <c r="B420" t="n">
         <v>1</v>
@@ -7161,12 +7161,12 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>45940</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>79378</v>
+        <v>79511</v>
       </c>
       <c r="B421" t="n">
         <v>1</v>
@@ -7177,12 +7177,12 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>45940</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>79510</v>
+        <v>79764</v>
       </c>
       <c r="B422" t="n">
         <v>1</v>
@@ -7193,12 +7193,12 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>45922</v>
+        <v>45941</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>79511</v>
+        <v>79765</v>
       </c>
       <c r="B423" t="n">
         <v>1</v>
@@ -7209,12 +7209,12 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>45905</v>
+        <v>45927</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>79630</v>
+        <v>79766</v>
       </c>
       <c r="B424" t="n">
         <v>1</v>
@@ -7230,7 +7230,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>79764</v>
+        <v>79767</v>
       </c>
       <c r="B425" t="n">
         <v>1</v>
@@ -7241,12 +7241,12 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>45941</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>79765</v>
+        <v>79861</v>
       </c>
       <c r="B426" t="n">
         <v>1</v>
@@ -7257,12 +7257,12 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>45927</v>
+        <v>45941</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>79766</v>
+        <v>80003</v>
       </c>
       <c r="B427" t="n">
         <v>1</v>
@@ -7278,7 +7278,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>79767</v>
+        <v>80005</v>
       </c>
       <c r="B428" t="n">
         <v>1</v>
@@ -7289,12 +7289,12 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>45923</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>79861</v>
+        <v>80134</v>
       </c>
       <c r="B429" t="n">
         <v>1</v>
@@ -7305,12 +7305,12 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>45941</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>80003</v>
+        <v>80135</v>
       </c>
       <c r="B430" t="n">
         <v>1</v>
@@ -7321,12 +7321,12 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>45923</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>80005</v>
+        <v>80136</v>
       </c>
       <c r="B431" t="n">
         <v>1</v>
@@ -7337,12 +7337,12 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>45929</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>80134</v>
+        <v>80258</v>
       </c>
       <c r="B432" t="n">
         <v>1</v>
@@ -7358,7 +7358,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>80135</v>
+        <v>80137</v>
       </c>
       <c r="B433" t="n">
         <v>1</v>
@@ -7369,12 +7369,12 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>45905</v>
+        <v>45927</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>80136</v>
+        <v>80138</v>
       </c>
       <c r="B434" t="n">
         <v>1</v>
@@ -7385,12 +7385,12 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>45924</v>
+        <v>45927</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>80258</v>
+        <v>80259</v>
       </c>
       <c r="B435" t="n">
         <v>1</v>
@@ -7401,12 +7401,12 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>45924</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>80137</v>
+        <v>80260</v>
       </c>
       <c r="B436" t="n">
         <v>1</v>
@@ -7417,12 +7417,12 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>45927</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>80138</v>
+        <v>80261</v>
       </c>
       <c r="B437" t="n">
         <v>1</v>
@@ -7433,12 +7433,12 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>45927</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>80259</v>
+        <v>80262</v>
       </c>
       <c r="B438" t="n">
         <v>1</v>
@@ -7449,12 +7449,12 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>45905</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>80260</v>
+        <v>80263</v>
       </c>
       <c r="B439" t="n">
         <v>1</v>
@@ -7465,12 +7465,12 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>45944</v>
+        <v>45941</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>80261</v>
+        <v>80264</v>
       </c>
       <c r="B440" t="n">
         <v>1</v>
@@ -7481,12 +7481,12 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>45924</v>
+        <v>45941</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>80262</v>
+        <v>80366</v>
       </c>
       <c r="B441" t="n">
         <v>1</v>
@@ -7497,12 +7497,12 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>45944</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>80263</v>
+        <v>80367</v>
       </c>
       <c r="B442" t="n">
         <v>1</v>
@@ -7513,12 +7513,12 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>45941</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>80264</v>
+        <v>80593</v>
       </c>
       <c r="B443" t="n">
         <v>1</v>
@@ -7529,12 +7529,12 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>45941</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>80366</v>
+        <v>80594</v>
       </c>
       <c r="B444" t="n">
         <v>1</v>
@@ -7545,12 +7545,12 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>45925</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>80367</v>
+        <v>80595</v>
       </c>
       <c r="B445" t="n">
         <v>1</v>
@@ -7566,7 +7566,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>80556</v>
+        <v>80596</v>
       </c>
       <c r="B446" t="n">
         <v>1</v>
@@ -7577,12 +7577,12 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>45944</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>80593</v>
+        <v>80597</v>
       </c>
       <c r="B447" t="n">
         <v>1</v>
@@ -7593,12 +7593,12 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>45944</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>80594</v>
+        <v>80598</v>
       </c>
       <c r="B448" t="n">
         <v>1</v>
@@ -7609,12 +7609,12 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>45944</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>80595</v>
+        <v>80729</v>
       </c>
       <c r="B449" t="n">
         <v>1</v>
@@ -7625,12 +7625,12 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>45925</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>80596</v>
+        <v>80728</v>
       </c>
       <c r="B450" t="n">
         <v>1</v>
@@ -7641,70 +7641,6 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>45925</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="n">
-        <v>80597</v>
-      </c>
-      <c r="B451" t="n">
-        <v>1</v>
-      </c>
-      <c r="C451" t="inlineStr">
-        <is>
-          <t>Pendiente Migrar</t>
-        </is>
-      </c>
-      <c r="D451" s="2" t="n">
-        <v>45929</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="n">
-        <v>80598</v>
-      </c>
-      <c r="B452" t="n">
-        <v>1</v>
-      </c>
-      <c r="C452" t="inlineStr">
-        <is>
-          <t>Pendiente Migrar</t>
-        </is>
-      </c>
-      <c r="D452" s="2" t="n">
-        <v>45929</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="n">
-        <v>80729</v>
-      </c>
-      <c r="B453" t="n">
-        <v>1</v>
-      </c>
-      <c r="C453" t="inlineStr">
-        <is>
-          <t>Pendiente Migrar</t>
-        </is>
-      </c>
-      <c r="D453" s="2" t="n">
-        <v>45944</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="n">
-        <v>80728</v>
-      </c>
-      <c r="B454" t="n">
-        <v>1</v>
-      </c>
-      <c r="C454" t="inlineStr">
-        <is>
-          <t>Pendiente Migrar</t>
-        </is>
-      </c>
-      <c r="D454" s="2" t="n">
         <v>45926</v>
       </c>
     </row>
@@ -7746,7 +7682,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_paquete_1_Cucuta.xlsx
+++ b/Resultado/estado_gestion_paquete_1_Cucuta.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D450"/>
+  <dimension ref="A1:D444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,7 +510,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12989</v>
+        <v>12800</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12800</v>
+        <v>15006</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -537,12 +537,12 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45909</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15006</v>
+        <v>15712</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -553,12 +553,12 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45894</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15712</v>
+        <v>18446</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -569,12 +569,12 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45903</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>18446</v>
+        <v>18620</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -585,12 +585,12 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45906</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>18620</v>
+        <v>20904</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20904</v>
+        <v>22695</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -617,12 +617,12 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45903</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>22695</v>
+        <v>23448</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -633,12 +633,12 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45919</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>23448</v>
+        <v>24643</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -649,12 +649,12 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45903</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>24643</v>
+        <v>24837</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -665,12 +665,12 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45918</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>24837</v>
+        <v>24904</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -681,12 +681,12 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45899</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>24904</v>
+        <v>26384</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -697,12 +697,12 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>26384</v>
+        <v>26829</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -713,12 +713,12 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45898</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>26829</v>
+        <v>26910</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -729,12 +729,12 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45904</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>26910</v>
+        <v>27586</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -745,12 +745,12 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45912</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>27586</v>
+        <v>28172</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -761,12 +761,12 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45918</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>28172</v>
+        <v>28544</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -777,12 +777,12 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45926</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>28544</v>
+        <v>28659</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -793,12 +793,12 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45913</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>28659</v>
+        <v>28660</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -809,12 +809,12 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45919</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>28660</v>
+        <v>29039</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -825,12 +825,12 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45918</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>29039</v>
+        <v>29270</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -841,12 +841,12 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45906</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>29270</v>
+        <v>30667</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -857,12 +857,12 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>30667</v>
+        <v>30669</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -873,12 +873,12 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45902</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>30669</v>
+        <v>30670</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -889,12 +889,12 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45913</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>30670</v>
+        <v>30935</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -905,12 +905,12 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45905</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>30935</v>
+        <v>31396</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -921,12 +921,12 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45916</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>31396</v>
+        <v>31899</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -937,12 +937,12 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45926</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31899</v>
+        <v>33005</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -953,12 +953,12 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45915</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>33005</v>
+        <v>33149</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -969,12 +969,12 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45923</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>33149</v>
+        <v>33150</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -985,12 +985,12 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45902</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>33150</v>
+        <v>34208</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -1001,12 +1001,12 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45938</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>34208</v>
+        <v>34858</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -1017,12 +1017,12 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45901</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>34858</v>
+        <v>35200</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>35200</v>
+        <v>35758</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -1049,12 +1049,12 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45899</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>35758</v>
+        <v>36752</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -1065,12 +1065,12 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45910</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>36752</v>
+        <v>37005</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -1081,12 +1081,12 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45897</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>37005</v>
+        <v>37749</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -1097,12 +1097,12 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45923</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>37418</v>
+        <v>38502</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -1113,12 +1113,12 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45916</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>37749</v>
+        <v>38478</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -1129,12 +1129,12 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45901</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>38502</v>
+        <v>38703</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -1145,12 +1145,12 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45909</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>38478</v>
+        <v>38918</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -1161,12 +1161,12 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45908</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>38703</v>
+        <v>39108</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -1177,12 +1177,12 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45896</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>38918</v>
+        <v>39515</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -1193,12 +1193,12 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45915</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>39108</v>
+        <v>40083</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -1209,12 +1209,12 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45923</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>39515</v>
+        <v>40026</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -1225,12 +1225,12 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45909</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>40083</v>
+        <v>40027</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -1241,12 +1241,12 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45911</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>40026</v>
+        <v>40084</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -1257,12 +1257,12 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45897</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>40027</v>
+        <v>40642</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -1273,12 +1273,12 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45919</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>40084</v>
+        <v>40644</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -1289,12 +1289,12 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45922</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>40642</v>
+        <v>40647</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -1305,12 +1305,12 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45903</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>40644</v>
+        <v>41289</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -1321,12 +1321,12 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45908</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>40647</v>
+        <v>41290</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -1337,12 +1337,12 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45901</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>41289</v>
+        <v>41848</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -1353,12 +1353,12 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45913</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>41290</v>
+        <v>41849</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -1369,12 +1369,12 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45896</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>41848</v>
+        <v>41855</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -1385,12 +1385,12 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45906</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>41849</v>
+        <v>41889</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -1401,12 +1401,12 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45903</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>41855</v>
+        <v>41917</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -1417,12 +1417,12 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45904</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>41889</v>
+        <v>41918</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -1433,12 +1433,12 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45909</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>41917</v>
+        <v>42032</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -1449,12 +1449,12 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45925</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>41918</v>
+        <v>42036</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -1465,12 +1465,12 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45915</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>42032</v>
+        <v>42037</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -1481,12 +1481,12 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45922</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>42036</v>
+        <v>42047</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -1497,12 +1497,12 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45924</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>42037</v>
+        <v>42238</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -1513,12 +1513,12 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45920</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>42047</v>
+        <v>43073</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -1529,12 +1529,12 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45917</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>42238</v>
+        <v>43196</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -1545,12 +1545,12 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45910</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43073</v>
+        <v>43199</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -1561,12 +1561,12 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43196</v>
+        <v>43431</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1577,12 +1577,12 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45896</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43199</v>
+        <v>45601</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -1593,12 +1593,12 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45897</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43431</v>
+        <v>45673</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -1609,12 +1609,12 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45906</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>45601</v>
+        <v>45674</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -1625,12 +1625,12 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45931</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>45673</v>
+        <v>45676</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -1641,12 +1641,12 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45916</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>45674</v>
+        <v>46023</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -1657,12 +1657,12 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45920</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>45676</v>
+        <v>46038</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -1673,12 +1673,12 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45896</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>46023</v>
+        <v>46236</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -1689,12 +1689,12 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45917</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>46038</v>
+        <v>46411</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -1705,12 +1705,12 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45919</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>46236</v>
+        <v>46413</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -1721,12 +1721,12 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45894</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>46411</v>
+        <v>47128</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -1737,12 +1737,12 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45918</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>46413</v>
+        <v>47067</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -1753,12 +1753,12 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45920</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>47128</v>
+        <v>47130</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -1769,12 +1769,12 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45939</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>47067</v>
+        <v>47133</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -1785,12 +1785,12 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45929</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>47130</v>
+        <v>47135</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -1801,12 +1801,12 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45913</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>47133</v>
+        <v>47137</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -1817,12 +1817,12 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45896</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>47135</v>
+        <v>47138</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -1833,12 +1833,12 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45897</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>47137</v>
+        <v>47307</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -1849,12 +1849,12 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45923</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>47138</v>
+        <v>47308</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -1865,12 +1865,12 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45916</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>47307</v>
+        <v>47309</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
@@ -1881,12 +1881,12 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45918</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>47308</v>
+        <v>47569</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
@@ -1897,12 +1897,12 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45901</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>47309</v>
+        <v>47573</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -1913,12 +1913,12 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45901</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>47569</v>
+        <v>47575</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
@@ -1929,12 +1929,12 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45920</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>47573</v>
+        <v>48382</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -1945,12 +1945,12 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45912</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>47575</v>
+        <v>48384</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -1961,12 +1961,12 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>48382</v>
+        <v>48385</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -1977,12 +1977,12 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45934</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>48384</v>
+        <v>48461</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -1993,12 +1993,12 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>48385</v>
+        <v>49790</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>48461</v>
+        <v>50034</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
@@ -2025,12 +2025,12 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45898</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>49790</v>
+        <v>50858</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -2041,12 +2041,12 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45895</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>50034</v>
+        <v>51255</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
@@ -2057,12 +2057,12 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45905</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>50858</v>
+        <v>51434</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
@@ -2073,12 +2073,12 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45917</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>51255</v>
+        <v>51435</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
@@ -2089,12 +2089,12 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45913</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>51434</v>
+        <v>52015</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -2105,12 +2105,12 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45894</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>51435</v>
+        <v>52016</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
@@ -2121,12 +2121,12 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45896</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>52015</v>
+        <v>52313</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -2137,12 +2137,12 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45910</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>52016</v>
+        <v>52419</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -2153,12 +2153,12 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45903</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>52313</v>
+        <v>52577</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
@@ -2169,12 +2169,12 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45904</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>52419</v>
+        <v>52895</v>
       </c>
       <c r="B109" t="n">
         <v>1</v>
@@ -2185,12 +2185,12 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45938</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>52577</v>
+        <v>53030</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
@@ -2201,12 +2201,12 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45911</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>52895</v>
+        <v>53205</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
@@ -2217,12 +2217,12 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45904</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>53030</v>
+        <v>53206</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
@@ -2233,12 +2233,12 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45908</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>53205</v>
+        <v>53394</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>53206</v>
+        <v>53511</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
@@ -2265,12 +2265,12 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45913</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>53394</v>
+        <v>53508</v>
       </c>
       <c r="B115" t="n">
         <v>1</v>
@@ -2281,12 +2281,12 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45915</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>53511</v>
+        <v>53840</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -2297,12 +2297,12 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45925</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>53508</v>
+        <v>53980</v>
       </c>
       <c r="B117" t="n">
         <v>1</v>
@@ -2313,12 +2313,12 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45896</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>53840</v>
+        <v>54267</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
@@ -2329,12 +2329,12 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45938</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>53980</v>
+        <v>54089</v>
       </c>
       <c r="B119" t="n">
         <v>1</v>
@@ -2345,12 +2345,12 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45917</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>54267</v>
+        <v>54571</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
@@ -2361,12 +2361,12 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45933</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>54089</v>
+        <v>54893</v>
       </c>
       <c r="B121" t="n">
         <v>1</v>
@@ -2377,12 +2377,12 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45894</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>54571</v>
+        <v>55338</v>
       </c>
       <c r="B122" t="n">
         <v>1</v>
@@ -2393,12 +2393,12 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45904</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>54893</v>
+        <v>55670</v>
       </c>
       <c r="B123" t="n">
         <v>1</v>
@@ -2409,12 +2409,12 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45916</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>55338</v>
+        <v>55671</v>
       </c>
       <c r="B124" t="n">
         <v>1</v>
@@ -2425,12 +2425,12 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45910</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>55670</v>
+        <v>55934</v>
       </c>
       <c r="B125" t="n">
         <v>1</v>
@@ -2441,12 +2441,12 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45895</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>55671</v>
+        <v>56122</v>
       </c>
       <c r="B126" t="n">
         <v>1</v>
@@ -2457,12 +2457,12 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45908</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>55934</v>
+        <v>56733</v>
       </c>
       <c r="B127" t="n">
         <v>1</v>
@@ -2473,12 +2473,12 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45908</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>56122</v>
+        <v>57130</v>
       </c>
       <c r="B128" t="n">
         <v>1</v>
@@ -2489,12 +2489,12 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45902</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>56733</v>
+        <v>57274</v>
       </c>
       <c r="B129" t="n">
         <v>1</v>
@@ -2505,12 +2505,12 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45903</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>57130</v>
+        <v>57275</v>
       </c>
       <c r="B130" t="n">
         <v>1</v>
@@ -2521,12 +2521,12 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45901</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>57274</v>
+        <v>57276</v>
       </c>
       <c r="B131" t="n">
         <v>1</v>
@@ -2537,12 +2537,12 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45894</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>57275</v>
+        <v>57385</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
@@ -2553,12 +2553,12 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45904</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>57276</v>
+        <v>57553</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
@@ -2569,12 +2569,12 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45899</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>57385</v>
+        <v>57798</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
@@ -2585,12 +2585,12 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45926</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>57553</v>
+        <v>57800</v>
       </c>
       <c r="B135" t="n">
         <v>1</v>
@@ -2601,12 +2601,12 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45912</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>57798</v>
+        <v>57801</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
@@ -2617,12 +2617,12 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45915</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>57800</v>
+        <v>58343</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
@@ -2633,12 +2633,12 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45934</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>57801</v>
+        <v>58546</v>
       </c>
       <c r="B138" t="n">
         <v>1</v>
@@ -2649,12 +2649,12 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45908</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>58343</v>
+        <v>58548</v>
       </c>
       <c r="B139" t="n">
         <v>1</v>
@@ -2665,12 +2665,12 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45936</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>58546</v>
+        <v>58678</v>
       </c>
       <c r="B140" t="n">
         <v>1</v>
@@ -2681,12 +2681,12 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45930</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>58548</v>
+        <v>58924</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>
@@ -2697,12 +2697,12 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45905</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>58678</v>
+        <v>58925</v>
       </c>
       <c r="B142" t="n">
         <v>1</v>
@@ -2713,12 +2713,12 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45920</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>58924</v>
+        <v>58926</v>
       </c>
       <c r="B143" t="n">
         <v>1</v>
@@ -2729,12 +2729,12 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45930</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>58925</v>
+        <v>58927</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
@@ -2745,12 +2745,12 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45903</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>58926</v>
+        <v>59161</v>
       </c>
       <c r="B145" t="n">
         <v>1</v>
@@ -2761,12 +2761,12 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45934</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>58927</v>
+        <v>59163</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
@@ -2777,12 +2777,12 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45919</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>59161</v>
+        <v>59247</v>
       </c>
       <c r="B147" t="n">
         <v>1</v>
@@ -2793,12 +2793,12 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45897</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>59163</v>
+        <v>59643</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
@@ -2809,12 +2809,12 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45897</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>59247</v>
+        <v>60338</v>
       </c>
       <c r="B149" t="n">
         <v>1</v>
@@ -2825,12 +2825,12 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45895</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>59643</v>
+        <v>60340</v>
       </c>
       <c r="B150" t="n">
         <v>1</v>
@@ -2841,12 +2841,12 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45920</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>60337</v>
+        <v>60379</v>
       </c>
       <c r="B151" t="n">
         <v>1</v>
@@ -2857,12 +2857,12 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45922</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>60338</v>
+        <v>60343</v>
       </c>
       <c r="B152" t="n">
         <v>1</v>
@@ -2873,12 +2873,12 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45922</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>60340</v>
+        <v>60344</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
@@ -2889,12 +2889,12 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45899</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>60379</v>
+        <v>60487</v>
       </c>
       <c r="B154" t="n">
         <v>1</v>
@@ -2905,12 +2905,12 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45929</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>60343</v>
+        <v>60488</v>
       </c>
       <c r="B155" t="n">
         <v>1</v>
@@ -2921,12 +2921,12 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45899</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>60344</v>
+        <v>60489</v>
       </c>
       <c r="B156" t="n">
         <v>1</v>
@@ -2937,12 +2937,12 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45908</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>60487</v>
+        <v>60490</v>
       </c>
       <c r="B157" t="n">
         <v>1</v>
@@ -2953,12 +2953,12 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45925</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>60488</v>
+        <v>60491</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
@@ -2969,12 +2969,12 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45917</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>60489</v>
+        <v>60493</v>
       </c>
       <c r="B159" t="n">
         <v>1</v>
@@ -2985,12 +2985,12 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45929</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>60490</v>
+        <v>60494</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
@@ -3001,12 +3001,12 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45918</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>60491</v>
+        <v>60950</v>
       </c>
       <c r="B161" t="n">
         <v>1</v>
@@ -3017,12 +3017,12 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45930</v>
+        <v>45927</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>60492</v>
+        <v>60852</v>
       </c>
       <c r="B162" t="n">
         <v>1</v>
@@ -3033,12 +3033,12 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45937</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>60493</v>
+        <v>60853</v>
       </c>
       <c r="B163" t="n">
         <v>1</v>
@@ -3049,12 +3049,12 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45901</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>60494</v>
+        <v>61224</v>
       </c>
       <c r="B164" t="n">
         <v>1</v>
@@ -3065,12 +3065,12 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45932</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>60950</v>
+        <v>62337</v>
       </c>
       <c r="B165" t="n">
         <v>1</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>60852</v>
+        <v>62624</v>
       </c>
       <c r="B166" t="n">
         <v>1</v>
@@ -3097,12 +3097,12 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>45913</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>60853</v>
+        <v>62698</v>
       </c>
       <c r="B167" t="n">
         <v>1</v>
@@ -3113,12 +3113,12 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>61224</v>
+        <v>62896</v>
       </c>
       <c r="B168" t="n">
         <v>1</v>
@@ -3129,12 +3129,12 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>45896</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>62337</v>
+        <v>62952</v>
       </c>
       <c r="B169" t="n">
         <v>1</v>
@@ -3145,12 +3145,12 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>45927</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>62624</v>
+        <v>63293</v>
       </c>
       <c r="B170" t="n">
         <v>1</v>
@@ -3161,12 +3161,12 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>45916</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>62698</v>
+        <v>63373</v>
       </c>
       <c r="B171" t="n">
         <v>1</v>
@@ -3177,12 +3177,12 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>45915</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>62896</v>
+        <v>63457</v>
       </c>
       <c r="B172" t="n">
         <v>1</v>
@@ -3193,12 +3193,12 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>45911</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>62952</v>
+        <v>63803</v>
       </c>
       <c r="B173" t="n">
         <v>1</v>
@@ -3209,12 +3209,12 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>45933</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>63293</v>
+        <v>63958</v>
       </c>
       <c r="B174" t="n">
         <v>1</v>
@@ -3225,12 +3225,12 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>45906</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>63373</v>
+        <v>64169</v>
       </c>
       <c r="B175" t="n">
         <v>1</v>
@@ -3241,12 +3241,12 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>45911</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>63457</v>
+        <v>64170</v>
       </c>
       <c r="B176" t="n">
         <v>1</v>
@@ -3257,12 +3257,12 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>45925</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>63803</v>
+        <v>64290</v>
       </c>
       <c r="B177" t="n">
         <v>1</v>
@@ -3273,12 +3273,12 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>45922</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>63931</v>
+        <v>64787</v>
       </c>
       <c r="B178" t="n">
         <v>1</v>
@@ -3289,12 +3289,12 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>63958</v>
+        <v>64725</v>
       </c>
       <c r="B179" t="n">
         <v>1</v>
@@ -3305,12 +3305,12 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>45910</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>64169</v>
+        <v>64791</v>
       </c>
       <c r="B180" t="n">
         <v>1</v>
@@ -3321,12 +3321,12 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45905</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>64170</v>
+        <v>64847</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
@@ -3337,12 +3337,12 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45901</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>64290</v>
+        <v>64903</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -3353,12 +3353,12 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45912</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>64787</v>
+        <v>65062</v>
       </c>
       <c r="B183" t="n">
         <v>1</v>
@@ -3369,12 +3369,12 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45898</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>64725</v>
+        <v>65258</v>
       </c>
       <c r="B184" t="n">
         <v>1</v>
@@ -3385,12 +3385,12 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45899</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>64791</v>
+        <v>65259</v>
       </c>
       <c r="B185" t="n">
         <v>1</v>
@@ -3401,12 +3401,12 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45925</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>64847</v>
+        <v>65382</v>
       </c>
       <c r="B186" t="n">
         <v>1</v>
@@ -3417,12 +3417,12 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>45909</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>64903</v>
+        <v>65384</v>
       </c>
       <c r="B187" t="n">
         <v>1</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>65062</v>
+        <v>65490</v>
       </c>
       <c r="B188" t="n">
         <v>1</v>
@@ -3449,12 +3449,12 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>45911</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>65258</v>
+        <v>65491</v>
       </c>
       <c r="B189" t="n">
         <v>1</v>
@@ -3465,12 +3465,12 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>45915</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>65259</v>
+        <v>65492</v>
       </c>
       <c r="B190" t="n">
         <v>1</v>
@@ -3481,12 +3481,12 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>45897</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>65382</v>
+        <v>65493</v>
       </c>
       <c r="B191" t="n">
         <v>1</v>
@@ -3497,12 +3497,12 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>45897</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>65384</v>
+        <v>65494</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
@@ -3513,12 +3513,12 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>45908</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>65490</v>
+        <v>65616</v>
       </c>
       <c r="B193" t="n">
         <v>1</v>
@@ -3529,12 +3529,12 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>65491</v>
+        <v>65617</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
@@ -3545,12 +3545,12 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>45931</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>65492</v>
+        <v>65618</v>
       </c>
       <c r="B195" t="n">
         <v>1</v>
@@ -3561,12 +3561,12 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>45905</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>65493</v>
+        <v>65688</v>
       </c>
       <c r="B196" t="n">
         <v>1</v>
@@ -3577,12 +3577,12 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>45909</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>65494</v>
+        <v>65896</v>
       </c>
       <c r="B197" t="n">
         <v>1</v>
@@ -3593,12 +3593,12 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>45894</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>65616</v>
+        <v>65897</v>
       </c>
       <c r="B198" t="n">
         <v>1</v>
@@ -3609,12 +3609,12 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>45898</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>65617</v>
+        <v>66092</v>
       </c>
       <c r="B199" t="n">
         <v>1</v>
@@ -3625,12 +3625,12 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>45901</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>65618</v>
+        <v>66488</v>
       </c>
       <c r="B200" t="n">
         <v>1</v>
@@ -3641,12 +3641,12 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>45917</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>65688</v>
+        <v>66489</v>
       </c>
       <c r="B201" t="n">
         <v>1</v>
@@ -3657,12 +3657,12 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45930</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>65896</v>
+        <v>66576</v>
       </c>
       <c r="B202" t="n">
         <v>1</v>
@@ -3673,12 +3673,12 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45920</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>65897</v>
+        <v>66925</v>
       </c>
       <c r="B203" t="n">
         <v>1</v>
@@ -3689,12 +3689,12 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45916</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>66092</v>
+        <v>66926</v>
       </c>
       <c r="B204" t="n">
         <v>1</v>
@@ -3705,12 +3705,12 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45895</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>66488</v>
+        <v>67132</v>
       </c>
       <c r="B205" t="n">
         <v>1</v>
@@ -3721,12 +3721,12 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45932</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>66489</v>
+        <v>67484</v>
       </c>
       <c r="B206" t="n">
         <v>1</v>
@@ -3737,12 +3737,12 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>45936</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>66576</v>
+        <v>67768</v>
       </c>
       <c r="B207" t="n">
         <v>1</v>
@@ -3753,12 +3753,12 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45917</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>66925</v>
+        <v>67821</v>
       </c>
       <c r="B208" t="n">
         <v>1</v>
@@ -3769,12 +3769,12 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>45909</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>66926</v>
+        <v>67822</v>
       </c>
       <c r="B209" t="n">
         <v>1</v>
@@ -3785,12 +3785,12 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45906</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>67132</v>
+        <v>67823</v>
       </c>
       <c r="B210" t="n">
         <v>1</v>
@@ -3801,12 +3801,12 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45922</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>67484</v>
+        <v>67824</v>
       </c>
       <c r="B211" t="n">
         <v>1</v>
@@ -3817,12 +3817,12 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45903</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>67768</v>
+        <v>68001</v>
       </c>
       <c r="B212" t="n">
         <v>1</v>
@@ -3833,12 +3833,12 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>45894</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>67821</v>
+        <v>68066</v>
       </c>
       <c r="B213" t="n">
         <v>1</v>
@@ -3849,12 +3849,12 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>45901</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>67822</v>
+        <v>68382</v>
       </c>
       <c r="B214" t="n">
         <v>1</v>
@@ -3865,12 +3865,12 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>45897</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>67823</v>
+        <v>68383</v>
       </c>
       <c r="B215" t="n">
         <v>1</v>
@@ -3881,12 +3881,12 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>45913</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>67824</v>
+        <v>68384</v>
       </c>
       <c r="B216" t="n">
         <v>1</v>
@@ -3897,12 +3897,12 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>45912</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>68001</v>
+        <v>68531</v>
       </c>
       <c r="B217" t="n">
         <v>1</v>
@@ -3913,12 +3913,12 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>45919</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>68066</v>
+        <v>69335</v>
       </c>
       <c r="B218" t="n">
         <v>1</v>
@@ -3929,12 +3929,12 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>45894</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>68382</v>
+        <v>69176</v>
       </c>
       <c r="B219" t="n">
         <v>1</v>
@@ -3945,12 +3945,12 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>45922</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>68383</v>
+        <v>69231</v>
       </c>
       <c r="B220" t="n">
         <v>1</v>
@@ -3961,12 +3961,12 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>68384</v>
+        <v>69177</v>
       </c>
       <c r="B221" t="n">
         <v>1</v>
@@ -3977,12 +3977,12 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>45924</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>68531</v>
+        <v>69433</v>
       </c>
       <c r="B222" t="n">
         <v>1</v>
@@ -3993,12 +3993,12 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>45898</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>69335</v>
+        <v>69908</v>
       </c>
       <c r="B223" t="n">
         <v>1</v>
@@ -4009,12 +4009,12 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>45906</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>69176</v>
+        <v>69909</v>
       </c>
       <c r="B224" t="n">
         <v>1</v>
@@ -4025,12 +4025,12 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>45916</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>69231</v>
+        <v>70228</v>
       </c>
       <c r="B225" t="n">
         <v>1</v>
@@ -4041,12 +4041,12 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>45920</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>69177</v>
+        <v>70183</v>
       </c>
       <c r="B226" t="n">
         <v>1</v>
@@ -4057,12 +4057,12 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>45912</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>69433</v>
+        <v>70229</v>
       </c>
       <c r="B227" t="n">
         <v>1</v>
@@ -4073,12 +4073,12 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>45906</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>69908</v>
+        <v>70284</v>
       </c>
       <c r="B228" t="n">
         <v>1</v>
@@ -4089,12 +4089,12 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>69909</v>
+        <v>70230</v>
       </c>
       <c r="B229" t="n">
         <v>1</v>
@@ -4105,12 +4105,12 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>45909</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>70228</v>
+        <v>70520</v>
       </c>
       <c r="B230" t="n">
         <v>1</v>
@@ -4121,12 +4121,12 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>45896</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>70183</v>
+        <v>70652</v>
       </c>
       <c r="B231" t="n">
         <v>1</v>
@@ -4137,12 +4137,12 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>45937</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>70229</v>
+        <v>70654</v>
       </c>
       <c r="B232" t="n">
         <v>1</v>
@@ -4153,12 +4153,12 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>45919</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>70284</v>
+        <v>70655</v>
       </c>
       <c r="B233" t="n">
         <v>1</v>
@@ -4169,12 +4169,12 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>45917</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>70230</v>
+        <v>71129</v>
       </c>
       <c r="B234" t="n">
         <v>1</v>
@@ -4185,12 +4185,12 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>45897</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>70520</v>
+        <v>71221</v>
       </c>
       <c r="B235" t="n">
         <v>1</v>
@@ -4201,12 +4201,12 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>45939</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>70652</v>
+        <v>71222</v>
       </c>
       <c r="B236" t="n">
         <v>1</v>
@@ -4217,12 +4217,12 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>45895</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>70654</v>
+        <v>71335</v>
       </c>
       <c r="B237" t="n">
         <v>1</v>
@@ -4233,12 +4233,12 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>45899</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>70655</v>
+        <v>71610</v>
       </c>
       <c r="B238" t="n">
         <v>1</v>
@@ -4249,12 +4249,12 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>45895</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>71129</v>
+        <v>71611</v>
       </c>
       <c r="B239" t="n">
         <v>1</v>
@@ -4265,12 +4265,12 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>45917</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>71221</v>
+        <v>71540</v>
       </c>
       <c r="B240" t="n">
         <v>1</v>
@@ -4281,12 +4281,12 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>45903</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>71222</v>
+        <v>71612</v>
       </c>
       <c r="B241" t="n">
         <v>1</v>
@@ -4297,12 +4297,12 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>45901</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>71335</v>
+        <v>71616</v>
       </c>
       <c r="B242" t="n">
         <v>1</v>
@@ -4313,12 +4313,12 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>45917</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>71610</v>
+        <v>71618</v>
       </c>
       <c r="B243" t="n">
         <v>1</v>
@@ -4329,12 +4329,12 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>45903</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>71611</v>
+        <v>71678</v>
       </c>
       <c r="B244" t="n">
         <v>1</v>
@@ -4345,12 +4345,12 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>45899</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>71540</v>
+        <v>71832</v>
       </c>
       <c r="B245" t="n">
         <v>1</v>
@@ -4361,12 +4361,12 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>45895</v>
+        <v>45927</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>71612</v>
+        <v>71833</v>
       </c>
       <c r="B246" t="n">
         <v>1</v>
@@ -4377,12 +4377,12 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>45938</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>71616</v>
+        <v>71924</v>
       </c>
       <c r="B247" t="n">
         <v>1</v>
@@ -4393,12 +4393,12 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>45939</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>71618</v>
+        <v>72059</v>
       </c>
       <c r="B248" t="n">
         <v>1</v>
@@ -4409,12 +4409,12 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>45924</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>71678</v>
+        <v>72060</v>
       </c>
       <c r="B249" t="n">
         <v>1</v>
@@ -4425,12 +4425,12 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>45916</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>71832</v>
+        <v>72611</v>
       </c>
       <c r="B250" t="n">
         <v>1</v>
@@ -4441,12 +4441,12 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>45927</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>71833</v>
+        <v>72613</v>
       </c>
       <c r="B251" t="n">
         <v>1</v>
@@ -4457,12 +4457,12 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>45898</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>71924</v>
+        <v>72614</v>
       </c>
       <c r="B252" t="n">
         <v>1</v>
@@ -4473,12 +4473,12 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>45936</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>72059</v>
+        <v>72615</v>
       </c>
       <c r="B253" t="n">
         <v>1</v>
@@ -4489,12 +4489,12 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>45911</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>72060</v>
+        <v>72720</v>
       </c>
       <c r="B254" t="n">
         <v>1</v>
@@ -4505,12 +4505,12 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>45926</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>72611</v>
+        <v>72722</v>
       </c>
       <c r="B255" t="n">
         <v>1</v>
@@ -4521,12 +4521,12 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>45902</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>72613</v>
+        <v>72904</v>
       </c>
       <c r="B256" t="n">
         <v>1</v>
@@ -4537,12 +4537,12 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>72614</v>
+        <v>72905</v>
       </c>
       <c r="B257" t="n">
         <v>1</v>
@@ -4553,12 +4553,12 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>45898</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>72615</v>
+        <v>73175</v>
       </c>
       <c r="B258" t="n">
         <v>1</v>
@@ -4569,12 +4569,12 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>45905</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>72720</v>
+        <v>73215</v>
       </c>
       <c r="B259" t="n">
         <v>1</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>72721</v>
+        <v>73339</v>
       </c>
       <c r="B260" t="n">
         <v>1</v>
@@ -4601,12 +4601,12 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>45934</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>72722</v>
+        <v>73340</v>
       </c>
       <c r="B261" t="n">
         <v>1</v>
@@ -4617,12 +4617,12 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>45931</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>72904</v>
+        <v>74273</v>
       </c>
       <c r="B262" t="n">
         <v>1</v>
@@ -4633,12 +4633,12 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>45904</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>72905</v>
+        <v>74274</v>
       </c>
       <c r="B263" t="n">
         <v>1</v>
@@ -4649,12 +4649,12 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>45896</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>73175</v>
+        <v>74275</v>
       </c>
       <c r="B264" t="n">
         <v>1</v>
@@ -4665,12 +4665,12 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>45936</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>73215</v>
+        <v>74276</v>
       </c>
       <c r="B265" t="n">
         <v>1</v>
@@ -4681,12 +4681,12 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>45897</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>73339</v>
+        <v>74277</v>
       </c>
       <c r="B266" t="n">
         <v>1</v>
@@ -4697,12 +4697,12 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>45926</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>73340</v>
+        <v>74278</v>
       </c>
       <c r="B267" t="n">
         <v>1</v>
@@ -4713,12 +4713,12 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>45902</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>74273</v>
+        <v>74279</v>
       </c>
       <c r="B268" t="n">
         <v>1</v>
@@ -4729,12 +4729,12 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>45913</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>74274</v>
+        <v>74280</v>
       </c>
       <c r="B269" t="n">
         <v>1</v>
@@ -4745,12 +4745,12 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>45902</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>74275</v>
+        <v>74282</v>
       </c>
       <c r="B270" t="n">
         <v>1</v>
@@ -4761,12 +4761,12 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>45915</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>74276</v>
+        <v>74283</v>
       </c>
       <c r="B271" t="n">
         <v>1</v>
@@ -4777,12 +4777,12 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>45910</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>74277</v>
+        <v>74335</v>
       </c>
       <c r="B272" t="n">
         <v>1</v>
@@ -4793,12 +4793,12 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>45898</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>74278</v>
+        <v>74336</v>
       </c>
       <c r="B273" t="n">
         <v>1</v>
@@ -4809,12 +4809,12 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>45906</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>74279</v>
+        <v>74337</v>
       </c>
       <c r="B274" t="n">
         <v>1</v>
@@ -4825,12 +4825,12 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>45910</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>74280</v>
+        <v>74376</v>
       </c>
       <c r="B275" t="n">
         <v>1</v>
@@ -4841,12 +4841,12 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>45924</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>74282</v>
+        <v>74421</v>
       </c>
       <c r="B276" t="n">
         <v>1</v>
@@ -4857,12 +4857,12 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>45933</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>74283</v>
+        <v>74422</v>
       </c>
       <c r="B277" t="n">
         <v>1</v>
@@ -4873,12 +4873,12 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>45905</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>74335</v>
+        <v>74476</v>
       </c>
       <c r="B278" t="n">
         <v>1</v>
@@ -4889,12 +4889,12 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>45918</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>74336</v>
+        <v>74493</v>
       </c>
       <c r="B279" t="n">
         <v>1</v>
@@ -4905,12 +4905,12 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>45894</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>74337</v>
+        <v>74539</v>
       </c>
       <c r="B280" t="n">
         <v>1</v>
@@ -4921,12 +4921,12 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>45904</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>74376</v>
+        <v>74540</v>
       </c>
       <c r="B281" t="n">
         <v>1</v>
@@ -4937,12 +4937,12 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>45917</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>74421</v>
+        <v>74541</v>
       </c>
       <c r="B282" t="n">
         <v>1</v>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>74422</v>
+        <v>74542</v>
       </c>
       <c r="B283" t="n">
         <v>1</v>
@@ -4969,12 +4969,12 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>45903</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>74476</v>
+        <v>74779</v>
       </c>
       <c r="B284" t="n">
         <v>1</v>
@@ -4985,12 +4985,12 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>45895</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>74493</v>
+        <v>74780</v>
       </c>
       <c r="B285" t="n">
         <v>1</v>
@@ -5001,12 +5001,12 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>45911</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>74539</v>
+        <v>74869</v>
       </c>
       <c r="B286" t="n">
         <v>1</v>
@@ -5017,12 +5017,12 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>45906</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>74540</v>
+        <v>75134</v>
       </c>
       <c r="B287" t="n">
         <v>1</v>
@@ -5033,12 +5033,12 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>45899</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>74541</v>
+        <v>75135</v>
       </c>
       <c r="B288" t="n">
         <v>1</v>
@@ -5049,12 +5049,12 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>45912</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>74542</v>
+        <v>75192</v>
       </c>
       <c r="B289" t="n">
         <v>1</v>
@@ -5065,12 +5065,12 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>45926</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>74779</v>
+        <v>75193</v>
       </c>
       <c r="B290" t="n">
         <v>1</v>
@@ -5081,12 +5081,12 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>45905</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>74780</v>
+        <v>75194</v>
       </c>
       <c r="B291" t="n">
         <v>1</v>
@@ -5097,12 +5097,12 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>45920</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>74869</v>
+        <v>75195</v>
       </c>
       <c r="B292" t="n">
         <v>1</v>
@@ -5113,12 +5113,12 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>45904</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>75134</v>
+        <v>75196</v>
       </c>
       <c r="B293" t="n">
         <v>1</v>
@@ -5129,12 +5129,12 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>45913</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>75135</v>
+        <v>75197</v>
       </c>
       <c r="B294" t="n">
         <v>1</v>
@@ -5145,12 +5145,12 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>45910</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>75192</v>
+        <v>75208</v>
       </c>
       <c r="B295" t="n">
         <v>1</v>
@@ -5161,12 +5161,12 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>45923</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>75193</v>
+        <v>75391</v>
       </c>
       <c r="B296" t="n">
         <v>1</v>
@@ -5177,12 +5177,12 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>45901</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>75194</v>
+        <v>75328</v>
       </c>
       <c r="B297" t="n">
         <v>1</v>
@@ -5193,12 +5193,12 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>45937</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>75195</v>
+        <v>75343</v>
       </c>
       <c r="B298" t="n">
         <v>1</v>
@@ -5209,12 +5209,12 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>45899</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>75196</v>
+        <v>75329</v>
       </c>
       <c r="B299" t="n">
         <v>1</v>
@@ -5225,12 +5225,12 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>75197</v>
+        <v>75349</v>
       </c>
       <c r="B300" t="n">
         <v>1</v>
@@ -5241,12 +5241,12 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>45908</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>75208</v>
+        <v>75350</v>
       </c>
       <c r="B301" t="n">
         <v>1</v>
@@ -5257,12 +5257,12 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>45915</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>75391</v>
+        <v>75351</v>
       </c>
       <c r="B302" t="n">
         <v>1</v>
@@ -5273,12 +5273,12 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>45916</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>75328</v>
+        <v>75396</v>
       </c>
       <c r="B303" t="n">
         <v>1</v>
@@ -5289,12 +5289,12 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>45902</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>75343</v>
+        <v>75403</v>
       </c>
       <c r="B304" t="n">
         <v>1</v>
@@ -5305,12 +5305,12 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>45904</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>75329</v>
+        <v>75405</v>
       </c>
       <c r="B305" t="n">
         <v>1</v>
@@ -5321,12 +5321,12 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>75349</v>
+        <v>75407</v>
       </c>
       <c r="B306" t="n">
         <v>1</v>
@@ -5337,12 +5337,12 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>45897</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>75350</v>
+        <v>75443</v>
       </c>
       <c r="B307" t="n">
         <v>1</v>
@@ -5353,12 +5353,12 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>75351</v>
+        <v>75445</v>
       </c>
       <c r="B308" t="n">
         <v>1</v>
@@ -5369,12 +5369,12 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>45909</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>75396</v>
+        <v>75467</v>
       </c>
       <c r="B309" t="n">
         <v>1</v>
@@ -5385,12 +5385,12 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>45894</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>75403</v>
+        <v>75446</v>
       </c>
       <c r="B310" t="n">
         <v>1</v>
@@ -5401,12 +5401,12 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>45896</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>75405</v>
+        <v>75609</v>
       </c>
       <c r="B311" t="n">
         <v>1</v>
@@ -5417,12 +5417,12 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>45905</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>75407</v>
+        <v>75615</v>
       </c>
       <c r="B312" t="n">
         <v>1</v>
@@ -5433,12 +5433,12 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>45918</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>75443</v>
+        <v>75616</v>
       </c>
       <c r="B313" t="n">
         <v>1</v>
@@ -5449,12 +5449,12 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>45904</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>75445</v>
+        <v>75734</v>
       </c>
       <c r="B314" t="n">
         <v>1</v>
@@ -5465,12 +5465,12 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>45898</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>75467</v>
+        <v>75833</v>
       </c>
       <c r="B315" t="n">
         <v>1</v>
@@ -5481,12 +5481,12 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>45924</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>75446</v>
+        <v>75837</v>
       </c>
       <c r="B316" t="n">
         <v>1</v>
@@ -5497,12 +5497,12 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>45932</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>75609</v>
+        <v>75840</v>
       </c>
       <c r="B317" t="n">
         <v>1</v>
@@ -5513,12 +5513,12 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>45902</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>75615</v>
+        <v>75848</v>
       </c>
       <c r="B318" t="n">
         <v>1</v>
@@ -5529,12 +5529,12 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>45903</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>75616</v>
+        <v>76000</v>
       </c>
       <c r="B319" t="n">
         <v>1</v>
@@ -5545,12 +5545,12 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>45924</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>75734</v>
+        <v>76002</v>
       </c>
       <c r="B320" t="n">
         <v>1</v>
@@ -5561,12 +5561,12 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>45910</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>75833</v>
+        <v>76003</v>
       </c>
       <c r="B321" t="n">
         <v>1</v>
@@ -5577,12 +5577,12 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>45913</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>75837</v>
+        <v>76127</v>
       </c>
       <c r="B322" t="n">
         <v>1</v>
@@ -5593,12 +5593,12 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>45919</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>75840</v>
+        <v>76191</v>
       </c>
       <c r="B323" t="n">
         <v>1</v>
@@ -5609,12 +5609,12 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>45918</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>75848</v>
+        <v>76234</v>
       </c>
       <c r="B324" t="n">
         <v>1</v>
@@ -5625,12 +5625,12 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>45894</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>76000</v>
+        <v>76265</v>
       </c>
       <c r="B325" t="n">
         <v>1</v>
@@ -5646,7 +5646,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>76002</v>
+        <v>76263</v>
       </c>
       <c r="B326" t="n">
         <v>1</v>
@@ -5657,12 +5657,12 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>45895</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>76003</v>
+        <v>76266</v>
       </c>
       <c r="B327" t="n">
         <v>1</v>
@@ -5673,12 +5673,12 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>45929</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>76127</v>
+        <v>76264</v>
       </c>
       <c r="B328" t="n">
         <v>1</v>
@@ -5689,12 +5689,12 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>45899</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>76191</v>
+        <v>76267</v>
       </c>
       <c r="B329" t="n">
         <v>1</v>
@@ -5705,12 +5705,12 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>45902</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>76234</v>
+        <v>76306</v>
       </c>
       <c r="B330" t="n">
         <v>1</v>
@@ -5721,12 +5721,12 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>45899</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>76265</v>
+        <v>76416</v>
       </c>
       <c r="B331" t="n">
         <v>1</v>
@@ -5737,12 +5737,12 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>45911</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>76263</v>
+        <v>76415</v>
       </c>
       <c r="B332" t="n">
         <v>1</v>
@@ -5753,12 +5753,12 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>45899</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>76266</v>
+        <v>76418</v>
       </c>
       <c r="B333" t="n">
         <v>1</v>
@@ -5769,12 +5769,12 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>45920</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>76264</v>
+        <v>76673</v>
       </c>
       <c r="B334" t="n">
         <v>1</v>
@@ -5785,12 +5785,12 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>45920</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>76267</v>
+        <v>76725</v>
       </c>
       <c r="B335" t="n">
         <v>1</v>
@@ -5801,12 +5801,12 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>45895</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>76306</v>
+        <v>76727</v>
       </c>
       <c r="B336" t="n">
         <v>1</v>
@@ -5817,12 +5817,12 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>45902</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>76416</v>
+        <v>76722</v>
       </c>
       <c r="B337" t="n">
         <v>1</v>
@@ -5833,12 +5833,12 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>45898</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>76415</v>
+        <v>76726</v>
       </c>
       <c r="B338" t="n">
         <v>1</v>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>76418</v>
+        <v>76724</v>
       </c>
       <c r="B339" t="n">
         <v>1</v>
@@ -5865,12 +5865,12 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>45910</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>76673</v>
+        <v>76767</v>
       </c>
       <c r="B340" t="n">
         <v>1</v>
@@ -5881,12 +5881,12 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>45925</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>76725</v>
+        <v>76766</v>
       </c>
       <c r="B341" t="n">
         <v>1</v>
@@ -5897,12 +5897,12 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>45925</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>76727</v>
+        <v>76797</v>
       </c>
       <c r="B342" t="n">
         <v>1</v>
@@ -5913,12 +5913,12 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>45896</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>76722</v>
+        <v>76796</v>
       </c>
       <c r="B343" t="n">
         <v>1</v>
@@ -5929,12 +5929,12 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>45911</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>76726</v>
+        <v>76889</v>
       </c>
       <c r="B344" t="n">
         <v>1</v>
@@ -5945,12 +5945,12 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>45904</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>76724</v>
+        <v>76888</v>
       </c>
       <c r="B345" t="n">
         <v>1</v>
@@ -5961,12 +5961,12 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>45898</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>76767</v>
+        <v>77073</v>
       </c>
       <c r="B346" t="n">
         <v>1</v>
@@ -5977,12 +5977,12 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>45910</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>76766</v>
+        <v>77167</v>
       </c>
       <c r="B347" t="n">
         <v>1</v>
@@ -5993,12 +5993,12 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>45898</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>76797</v>
+        <v>77229</v>
       </c>
       <c r="B348" t="n">
         <v>1</v>
@@ -6009,12 +6009,12 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>45906</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>76796</v>
+        <v>77304</v>
       </c>
       <c r="B349" t="n">
         <v>1</v>
@@ -6025,12 +6025,12 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>45905</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>76889</v>
+        <v>77230</v>
       </c>
       <c r="B350" t="n">
         <v>1</v>
@@ -6041,12 +6041,12 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>45902</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>76888</v>
+        <v>77305</v>
       </c>
       <c r="B351" t="n">
         <v>1</v>
@@ -6057,12 +6057,12 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>45909</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>77073</v>
+        <v>77307</v>
       </c>
       <c r="B352" t="n">
         <v>1</v>
@@ -6073,12 +6073,12 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>45917</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>77167</v>
+        <v>77308</v>
       </c>
       <c r="B353" t="n">
         <v>1</v>
@@ -6089,12 +6089,12 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>77229</v>
+        <v>77275</v>
       </c>
       <c r="B354" t="n">
         <v>1</v>
@@ -6105,12 +6105,12 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>45940</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>77304</v>
+        <v>77342</v>
       </c>
       <c r="B355" t="n">
         <v>1</v>
@@ -6121,12 +6121,12 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>45940</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>77230</v>
+        <v>77345</v>
       </c>
       <c r="B356" t="n">
         <v>1</v>
@@ -6137,12 +6137,12 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>45908</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>77305</v>
+        <v>77346</v>
       </c>
       <c r="B357" t="n">
         <v>1</v>
@@ -6153,12 +6153,12 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>45896</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>77307</v>
+        <v>77401</v>
       </c>
       <c r="B358" t="n">
         <v>1</v>
@@ -6169,12 +6169,12 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>45922</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>77308</v>
+        <v>77449</v>
       </c>
       <c r="B359" t="n">
         <v>1</v>
@@ -6190,7 +6190,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>77275</v>
+        <v>77450</v>
       </c>
       <c r="B360" t="n">
         <v>1</v>
@@ -6201,12 +6201,12 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>45895</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>77342</v>
+        <v>77537</v>
       </c>
       <c r="B361" t="n">
         <v>1</v>
@@ -6217,12 +6217,12 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>45923</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>77345</v>
+        <v>77538</v>
       </c>
       <c r="B362" t="n">
         <v>1</v>
@@ -6233,12 +6233,12 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>45933</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>77346</v>
+        <v>77657</v>
       </c>
       <c r="B363" t="n">
         <v>1</v>
@@ -6249,12 +6249,12 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>45915</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>77401</v>
+        <v>77608</v>
       </c>
       <c r="B364" t="n">
         <v>1</v>
@@ -6265,12 +6265,12 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>45939</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>77449</v>
+        <v>77658</v>
       </c>
       <c r="B365" t="n">
         <v>1</v>
@@ -6281,12 +6281,12 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>45896</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>77450</v>
+        <v>77660</v>
       </c>
       <c r="B366" t="n">
         <v>1</v>
@@ -6297,12 +6297,12 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>45918</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>77537</v>
+        <v>77661</v>
       </c>
       <c r="B367" t="n">
         <v>1</v>
@@ -6313,12 +6313,12 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>45922</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>77538</v>
+        <v>77662</v>
       </c>
       <c r="B368" t="n">
         <v>1</v>
@@ -6329,12 +6329,12 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>45918</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>77657</v>
+        <v>77663</v>
       </c>
       <c r="B369" t="n">
         <v>1</v>
@@ -6345,12 +6345,12 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>45923</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>77608</v>
+        <v>77664</v>
       </c>
       <c r="B370" t="n">
         <v>1</v>
@@ -6361,12 +6361,12 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>45894</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>77658</v>
+        <v>77732</v>
       </c>
       <c r="B371" t="n">
         <v>1</v>
@@ -6377,12 +6377,12 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>45912</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>77660</v>
+        <v>77894</v>
       </c>
       <c r="B372" t="n">
         <v>1</v>
@@ -6393,12 +6393,12 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>45937</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>77661</v>
+        <v>77958</v>
       </c>
       <c r="B373" t="n">
         <v>1</v>
@@ -6409,12 +6409,12 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>45932</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>77662</v>
+        <v>78002</v>
       </c>
       <c r="B374" t="n">
         <v>1</v>
@@ -6425,12 +6425,12 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>45899</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>77663</v>
+        <v>78003</v>
       </c>
       <c r="B375" t="n">
         <v>1</v>
@@ -6441,12 +6441,12 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>77664</v>
+        <v>78004</v>
       </c>
       <c r="B376" t="n">
         <v>1</v>
@@ -6457,12 +6457,12 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>45902</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>77732</v>
+        <v>78077</v>
       </c>
       <c r="B377" t="n">
         <v>1</v>
@@ -6473,12 +6473,12 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>45925</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>77894</v>
+        <v>78184</v>
       </c>
       <c r="B378" t="n">
         <v>1</v>
@@ -6489,12 +6489,12 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>45905</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>77958</v>
+        <v>78185</v>
       </c>
       <c r="B379" t="n">
         <v>1</v>
@@ -6505,12 +6505,12 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>45908</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>78002</v>
+        <v>78246</v>
       </c>
       <c r="B380" t="n">
         <v>1</v>
@@ -6521,12 +6521,12 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>45896</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>78003</v>
+        <v>78345</v>
       </c>
       <c r="B381" t="n">
         <v>1</v>
@@ -6537,12 +6537,12 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>45902</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>78004</v>
+        <v>78346</v>
       </c>
       <c r="B382" t="n">
         <v>1</v>
@@ -6553,12 +6553,12 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>45912</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>78077</v>
+        <v>78347</v>
       </c>
       <c r="B383" t="n">
         <v>1</v>
@@ -6569,12 +6569,12 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>45916</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>78184</v>
+        <v>78378</v>
       </c>
       <c r="B384" t="n">
         <v>1</v>
@@ -6585,12 +6585,12 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>45894</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>78185</v>
+        <v>78377</v>
       </c>
       <c r="B385" t="n">
         <v>1</v>
@@ -6601,12 +6601,12 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>45919</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>78246</v>
+        <v>78423</v>
       </c>
       <c r="B386" t="n">
         <v>1</v>
@@ -6617,12 +6617,12 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>45918</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>78345</v>
+        <v>78517</v>
       </c>
       <c r="B387" t="n">
         <v>1</v>
@@ -6633,12 +6633,12 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>45912</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>78346</v>
+        <v>78518</v>
       </c>
       <c r="B388" t="n">
         <v>1</v>
@@ -6649,12 +6649,12 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>45911</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>78347</v>
+        <v>78516</v>
       </c>
       <c r="B389" t="n">
         <v>1</v>
@@ -6665,12 +6665,12 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>45898</v>
+        <v>45927</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>78378</v>
+        <v>78520</v>
       </c>
       <c r="B390" t="n">
         <v>1</v>
@@ -6681,12 +6681,12 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>45904</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>78377</v>
+        <v>78607</v>
       </c>
       <c r="B391" t="n">
         <v>1</v>
@@ -6697,12 +6697,12 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>45916</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>78423</v>
+        <v>78625</v>
       </c>
       <c r="B392" t="n">
         <v>1</v>
@@ -6713,12 +6713,12 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>45923</v>
+        <v>45927</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>78517</v>
+        <v>78798</v>
       </c>
       <c r="B393" t="n">
         <v>1</v>
@@ -6729,12 +6729,12 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>45926</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>78518</v>
+        <v>78799</v>
       </c>
       <c r="B394" t="n">
         <v>1</v>
@@ -6745,12 +6745,12 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>45905</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>78516</v>
+        <v>78869</v>
       </c>
       <c r="B395" t="n">
         <v>1</v>
@@ -6761,12 +6761,12 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>45927</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>78520</v>
+        <v>78902</v>
       </c>
       <c r="B396" t="n">
         <v>1</v>
@@ -6777,12 +6777,12 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>45919</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>78607</v>
+        <v>78901</v>
       </c>
       <c r="B397" t="n">
         <v>1</v>
@@ -6793,12 +6793,12 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>45919</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>78625</v>
+        <v>78871</v>
       </c>
       <c r="B398" t="n">
         <v>1</v>
@@ -6809,12 +6809,12 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>45927</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>78798</v>
+        <v>78949</v>
       </c>
       <c r="B399" t="n">
         <v>1</v>
@@ -6825,12 +6825,12 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>45901</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>78799</v>
+        <v>78947</v>
       </c>
       <c r="B400" t="n">
         <v>1</v>
@@ -6841,12 +6841,12 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>45894</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>78869</v>
+        <v>78951</v>
       </c>
       <c r="B401" t="n">
         <v>1</v>
@@ -6857,12 +6857,12 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>45902</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>78902</v>
+        <v>78948</v>
       </c>
       <c r="B402" t="n">
         <v>1</v>
@@ -6873,12 +6873,12 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>45898</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>78901</v>
+        <v>78950</v>
       </c>
       <c r="B403" t="n">
         <v>1</v>
@@ -6889,12 +6889,12 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>45920</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>78871</v>
+        <v>79062</v>
       </c>
       <c r="B404" t="n">
         <v>1</v>
@@ -6905,12 +6905,12 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>45897</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>78949</v>
+        <v>79063</v>
       </c>
       <c r="B405" t="n">
         <v>1</v>
@@ -6921,12 +6921,12 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>45919</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>78947</v>
+        <v>79067</v>
       </c>
       <c r="B406" t="n">
         <v>1</v>
@@ -6937,12 +6937,12 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>45899</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>78951</v>
+        <v>79066</v>
       </c>
       <c r="B407" t="n">
         <v>1</v>
@@ -6953,12 +6953,12 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>45912</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>78948</v>
+        <v>79070</v>
       </c>
       <c r="B408" t="n">
         <v>1</v>
@@ -6969,12 +6969,12 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>45906</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>78950</v>
+        <v>79068</v>
       </c>
       <c r="B409" t="n">
         <v>1</v>
@@ -6985,12 +6985,12 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>45910</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>79062</v>
+        <v>79071</v>
       </c>
       <c r="B410" t="n">
         <v>1</v>
@@ -7001,12 +7001,12 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>45913</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>79063</v>
+        <v>79211</v>
       </c>
       <c r="B411" t="n">
         <v>1</v>
@@ -7017,12 +7017,12 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>45904</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>79067</v>
+        <v>79508</v>
       </c>
       <c r="B412" t="n">
         <v>1</v>
@@ -7033,12 +7033,12 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>45924</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>79066</v>
+        <v>79378</v>
       </c>
       <c r="B413" t="n">
         <v>1</v>
@@ -7049,12 +7049,12 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>79070</v>
+        <v>79510</v>
       </c>
       <c r="B414" t="n">
         <v>1</v>
@@ -7065,12 +7065,12 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>45915</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>79068</v>
+        <v>79511</v>
       </c>
       <c r="B415" t="n">
         <v>1</v>
@@ -7081,12 +7081,12 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>45904</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>79071</v>
+        <v>79764</v>
       </c>
       <c r="B416" t="n">
         <v>1</v>
@@ -7097,12 +7097,12 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>45924</v>
+        <v>45941</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>79211</v>
+        <v>79765</v>
       </c>
       <c r="B417" t="n">
         <v>1</v>
@@ -7113,12 +7113,12 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>45922</v>
+        <v>45927</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>79508</v>
+        <v>79766</v>
       </c>
       <c r="B418" t="n">
         <v>1</v>
@@ -7129,12 +7129,12 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>45940</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>79378</v>
+        <v>79767</v>
       </c>
       <c r="B419" t="n">
         <v>1</v>
@@ -7145,12 +7145,12 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>45940</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>79510</v>
+        <v>79861</v>
       </c>
       <c r="B420" t="n">
         <v>1</v>
@@ -7161,12 +7161,12 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>45922</v>
+        <v>45941</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>79511</v>
+        <v>80003</v>
       </c>
       <c r="B421" t="n">
         <v>1</v>
@@ -7177,12 +7177,12 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>45905</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>79764</v>
+        <v>80005</v>
       </c>
       <c r="B422" t="n">
         <v>1</v>
@@ -7193,12 +7193,12 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>45941</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>79765</v>
+        <v>80134</v>
       </c>
       <c r="B423" t="n">
         <v>1</v>
@@ -7209,12 +7209,12 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>45927</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>79766</v>
+        <v>80135</v>
       </c>
       <c r="B424" t="n">
         <v>1</v>
@@ -7225,12 +7225,12 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>45923</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>79767</v>
+        <v>80136</v>
       </c>
       <c r="B425" t="n">
         <v>1</v>
@@ -7241,12 +7241,12 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>45923</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>79861</v>
+        <v>80258</v>
       </c>
       <c r="B426" t="n">
         <v>1</v>
@@ -7257,12 +7257,12 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>45941</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>80003</v>
+        <v>80137</v>
       </c>
       <c r="B427" t="n">
         <v>1</v>
@@ -7273,12 +7273,12 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>45923</v>
+        <v>45927</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>80005</v>
+        <v>80138</v>
       </c>
       <c r="B428" t="n">
         <v>1</v>
@@ -7289,12 +7289,12 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>45929</v>
+        <v>45927</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>80134</v>
+        <v>80259</v>
       </c>
       <c r="B429" t="n">
         <v>1</v>
@@ -7305,12 +7305,12 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>45924</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>80135</v>
+        <v>80260</v>
       </c>
       <c r="B430" t="n">
         <v>1</v>
@@ -7321,12 +7321,12 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>45905</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>80136</v>
+        <v>80261</v>
       </c>
       <c r="B431" t="n">
         <v>1</v>
@@ -7342,7 +7342,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>80258</v>
+        <v>80262</v>
       </c>
       <c r="B432" t="n">
         <v>1</v>
@@ -7353,12 +7353,12 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>45924</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>80137</v>
+        <v>80263</v>
       </c>
       <c r="B433" t="n">
         <v>1</v>
@@ -7369,12 +7369,12 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>45927</v>
+        <v>45941</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>80138</v>
+        <v>80264</v>
       </c>
       <c r="B434" t="n">
         <v>1</v>
@@ -7385,12 +7385,12 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>45927</v>
+        <v>45941</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>80259</v>
+        <v>80366</v>
       </c>
       <c r="B435" t="n">
         <v>1</v>
@@ -7401,12 +7401,12 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>45905</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>80260</v>
+        <v>80367</v>
       </c>
       <c r="B436" t="n">
         <v>1</v>
@@ -7417,12 +7417,12 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>45944</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>80261</v>
+        <v>80593</v>
       </c>
       <c r="B437" t="n">
         <v>1</v>
@@ -7433,12 +7433,12 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>45924</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>80262</v>
+        <v>80594</v>
       </c>
       <c r="B438" t="n">
         <v>1</v>
@@ -7454,7 +7454,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>80263</v>
+        <v>80595</v>
       </c>
       <c r="B439" t="n">
         <v>1</v>
@@ -7465,12 +7465,12 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>45941</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>80264</v>
+        <v>80596</v>
       </c>
       <c r="B440" t="n">
         <v>1</v>
@@ -7481,12 +7481,12 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>45941</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>80366</v>
+        <v>80597</v>
       </c>
       <c r="B441" t="n">
         <v>1</v>
@@ -7497,12 +7497,12 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>80367</v>
+        <v>80598</v>
       </c>
       <c r="B442" t="n">
         <v>1</v>
@@ -7513,12 +7513,12 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>80593</v>
+        <v>80729</v>
       </c>
       <c r="B443" t="n">
         <v>1</v>
@@ -7534,7 +7534,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>80594</v>
+        <v>80728</v>
       </c>
       <c r="B444" t="n">
         <v>1</v>
@@ -7545,102 +7545,6 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>45944</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="n">
-        <v>80595</v>
-      </c>
-      <c r="B445" t="n">
-        <v>1</v>
-      </c>
-      <c r="C445" t="inlineStr">
-        <is>
-          <t>Pendiente Migrar</t>
-        </is>
-      </c>
-      <c r="D445" s="2" t="n">
-        <v>45925</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="n">
-        <v>80596</v>
-      </c>
-      <c r="B446" t="n">
-        <v>1</v>
-      </c>
-      <c r="C446" t="inlineStr">
-        <is>
-          <t>Pendiente Migrar</t>
-        </is>
-      </c>
-      <c r="D446" s="2" t="n">
-        <v>45925</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="n">
-        <v>80597</v>
-      </c>
-      <c r="B447" t="n">
-        <v>1</v>
-      </c>
-      <c r="C447" t="inlineStr">
-        <is>
-          <t>Pendiente Migrar</t>
-        </is>
-      </c>
-      <c r="D447" s="2" t="n">
-        <v>45929</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="n">
-        <v>80598</v>
-      </c>
-      <c r="B448" t="n">
-        <v>1</v>
-      </c>
-      <c r="C448" t="inlineStr">
-        <is>
-          <t>Pendiente Migrar</t>
-        </is>
-      </c>
-      <c r="D448" s="2" t="n">
-        <v>45929</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="n">
-        <v>80729</v>
-      </c>
-      <c r="B449" t="n">
-        <v>1</v>
-      </c>
-      <c r="C449" t="inlineStr">
-        <is>
-          <t>Pendiente Migrar</t>
-        </is>
-      </c>
-      <c r="D449" s="2" t="n">
-        <v>45944</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="n">
-        <v>80728</v>
-      </c>
-      <c r="B450" t="n">
-        <v>1</v>
-      </c>
-      <c r="C450" t="inlineStr">
-        <is>
-          <t>Pendiente Migrar</t>
-        </is>
-      </c>
-      <c r="D450" s="2" t="n">
         <v>45926</v>
       </c>
     </row>
@@ -7682,7 +7586,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
